--- a/Abnormality of blood and blood-forming tissues_v1.0.xlsx
+++ b/Abnormality of blood and blood-forming tissues_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D401AF3A-8697-174C-8735-32A003E918AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C277E47A-5E6D-FA45-9710-E9C3FE20A8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71300" yWindow="1220" windowWidth="34300" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="74800" yWindow="4140" windowWidth="34300" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="1156">
   <si>
     <t>Prolonged euglobulin clot lysis time</t>
   </si>
@@ -3482,6 +3482,31 @@
     <t>病理</t>
     <rPh sb="0" eb="1">
       <t>ビョウリ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>形質細胞数の増加</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシテゥ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>乳児期の一過性低ガンマグロブリン血症</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>無ガマグロブリン血症</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ム </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>網状赤血球増加症</t>
+    <rPh sb="5" eb="7">
+      <t>ゾウカ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -4513,7 +4538,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="D540" sqref="D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -4527,22 +4552,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B1" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4555,7 +4580,9 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -4567,7 +4594,9 @@
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
@@ -4579,7 +4608,9 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
@@ -4591,7 +4622,9 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -4603,7 +4636,9 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
@@ -4615,7 +4650,9 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
@@ -4627,7 +4664,9 @@
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
@@ -4639,7 +4678,9 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -4651,7 +4692,9 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
@@ -4663,7 +4706,9 @@
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
@@ -4675,7 +4720,9 @@
       <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
@@ -4687,7 +4734,9 @@
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
@@ -4699,7 +4748,9 @@
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
@@ -4711,7 +4762,9 @@
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
@@ -4723,7 +4776,9 @@
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
@@ -4735,7 +4790,9 @@
       <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
@@ -4747,7 +4804,9 @@
       <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
@@ -4759,7 +4818,9 @@
       <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
@@ -4771,7 +4832,9 @@
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
@@ -4783,7 +4846,9 @@
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
@@ -4795,7 +4860,9 @@
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
@@ -4807,7 +4874,9 @@
       <c r="E23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
@@ -4819,7 +4888,9 @@
       <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
@@ -4831,7 +4902,9 @@
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
@@ -4843,7 +4916,9 @@
       <c r="E26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
@@ -4855,7 +4930,9 @@
       <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
@@ -4867,7 +4944,9 @@
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
@@ -4879,7 +4958,9 @@
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
@@ -4891,7 +4972,9 @@
       <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
@@ -4903,7 +4986,9 @@
       <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
@@ -4915,7 +5000,9 @@
       <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
@@ -4927,7 +5014,9 @@
       <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
@@ -4939,7 +5028,9 @@
       <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
@@ -4951,7 +5042,9 @@
       <c r="E35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
@@ -4963,7 +5056,9 @@
       <c r="E36" s="4">
         <v>1</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
@@ -4975,7 +5070,9 @@
       <c r="E37" s="4">
         <v>1</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
@@ -4987,7 +5084,9 @@
       <c r="E38" s="4">
         <v>1</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
@@ -4999,7 +5098,9 @@
       <c r="E39" s="4">
         <v>1</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
@@ -5011,7 +5112,9 @@
       <c r="E40" s="4">
         <v>1</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
@@ -5023,7 +5126,9 @@
       <c r="E41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
@@ -5035,7 +5140,9 @@
       <c r="E42" s="4">
         <v>1</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
@@ -5047,7 +5154,9 @@
       <c r="E43" s="4">
         <v>1</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
@@ -5059,7 +5168,9 @@
       <c r="E44" s="4">
         <v>1</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
@@ -5071,7 +5182,9 @@
       <c r="E45" s="4">
         <v>1</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
@@ -5083,7 +5196,9 @@
       <c r="E46" s="4">
         <v>1</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
@@ -5095,7 +5210,9 @@
       <c r="E47" s="4">
         <v>1</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
@@ -5107,7 +5224,9 @@
       <c r="E48" s="4">
         <v>1</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
@@ -5119,7 +5238,9 @@
       <c r="E49" s="4">
         <v>1</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
@@ -5131,7 +5252,9 @@
       <c r="E50" s="4">
         <v>1</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
@@ -5143,7 +5266,9 @@
       <c r="E51" s="4">
         <v>1</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
@@ -5155,7 +5280,9 @@
       <c r="E52" s="4">
         <v>1</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
@@ -5167,7 +5294,9 @@
       <c r="E53" s="4">
         <v>1</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
@@ -5179,7 +5308,9 @@
       <c r="E54" s="4">
         <v>1</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
@@ -5191,7 +5322,9 @@
       <c r="E55" s="4">
         <v>1</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
@@ -5203,7 +5336,9 @@
       <c r="E56" s="4">
         <v>1</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
@@ -5215,7 +5350,9 @@
       <c r="E57" s="4">
         <v>1</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
@@ -5227,7 +5364,9 @@
       <c r="E58" s="4">
         <v>1</v>
       </c>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
@@ -5239,7 +5378,9 @@
       <c r="E59" s="4">
         <v>1</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
@@ -5251,7 +5392,9 @@
       <c r="E60" s="4">
         <v>1</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
@@ -5263,7 +5406,9 @@
       <c r="E61" s="4">
         <v>1</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
@@ -5275,7 +5420,9 @@
       <c r="E62" s="4">
         <v>1</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
@@ -5287,7 +5434,9 @@
       <c r="E63" s="4">
         <v>1</v>
       </c>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
@@ -5300,7 +5449,9 @@
         <v>1</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
@@ -5313,7 +5464,9 @@
         <v>1</v>
       </c>
       <c r="D65" s="4"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
@@ -5326,7 +5479,9 @@
         <v>1</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
@@ -5339,7 +5494,9 @@
         <v>1</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
@@ -5351,7 +5508,9 @@
       <c r="E68" s="4">
         <v>1</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
@@ -5364,7 +5523,9 @@
         <v>1</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
@@ -5377,7 +5538,9 @@
         <v>1</v>
       </c>
       <c r="D70" s="4"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
@@ -5389,7 +5552,9 @@
       <c r="E71" s="4">
         <v>1</v>
       </c>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
@@ -5401,7 +5566,9 @@
       <c r="E72" s="4">
         <v>1</v>
       </c>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
@@ -5413,7 +5580,9 @@
       <c r="E73" s="4">
         <v>1</v>
       </c>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
@@ -5425,7 +5594,9 @@
       <c r="E74" s="4">
         <v>1</v>
       </c>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
@@ -5441,7 +5612,9 @@
       <c r="E75" s="4">
         <v>1</v>
       </c>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
@@ -5457,7 +5630,9 @@
       <c r="E76" s="4">
         <v>1</v>
       </c>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
@@ -5470,7 +5645,9 @@
         <v>1</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
@@ -5486,7 +5663,9 @@
       <c r="E78" s="4">
         <v>1</v>
       </c>
-      <c r="G78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
@@ -5502,7 +5681,9 @@
       <c r="E79" s="4">
         <v>1</v>
       </c>
-      <c r="G79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
@@ -5518,7 +5699,9 @@
       <c r="E80" s="4">
         <v>1</v>
       </c>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
@@ -5530,7 +5713,9 @@
       <c r="E81" s="4">
         <v>1</v>
       </c>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
@@ -5542,7 +5727,9 @@
       <c r="E82" s="4">
         <v>1</v>
       </c>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
@@ -5554,7 +5741,9 @@
       <c r="E83" s="4">
         <v>1</v>
       </c>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
@@ -5566,7 +5755,9 @@
       <c r="E84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
@@ -5578,7 +5769,9 @@
       <c r="E85" s="4">
         <v>1</v>
       </c>
-      <c r="G85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
@@ -5590,7 +5783,9 @@
       <c r="E86" s="4">
         <v>1</v>
       </c>
-      <c r="G86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
@@ -5602,7 +5797,9 @@
       <c r="E87" s="4">
         <v>1</v>
       </c>
-      <c r="G87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
@@ -5614,7 +5811,9 @@
       <c r="E88" s="4">
         <v>1</v>
       </c>
-      <c r="G88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
@@ -5626,7 +5825,9 @@
       <c r="E89" s="4">
         <v>1</v>
       </c>
-      <c r="G89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
@@ -5638,7 +5839,9 @@
       <c r="E90" s="4">
         <v>1</v>
       </c>
-      <c r="G90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
@@ -5650,7 +5853,9 @@
       <c r="E91" s="4">
         <v>1</v>
       </c>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
@@ -5662,7 +5867,9 @@
       <c r="E92" s="4">
         <v>1</v>
       </c>
-      <c r="G92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
@@ -5674,7 +5881,9 @@
       <c r="E93" s="4">
         <v>1</v>
       </c>
-      <c r="G93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
@@ -5686,7 +5895,9 @@
       <c r="E94" s="4">
         <v>1</v>
       </c>
-      <c r="G94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
@@ -5699,7 +5910,9 @@
         <v>1</v>
       </c>
       <c r="D95" s="4"/>
-      <c r="G95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
@@ -5712,7 +5925,9 @@
         <v>1</v>
       </c>
       <c r="D96" s="4"/>
-      <c r="G96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
@@ -5724,7 +5939,9 @@
       <c r="E97" s="4">
         <v>1</v>
       </c>
-      <c r="G97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
@@ -5736,7 +5953,9 @@
       <c r="E98" s="4">
         <v>1</v>
       </c>
-      <c r="G98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
@@ -5748,7 +5967,9 @@
       <c r="E99" s="4">
         <v>1</v>
       </c>
-      <c r="G99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
@@ -5760,7 +5981,9 @@
       <c r="E100" s="4">
         <v>1</v>
       </c>
-      <c r="G100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
@@ -5772,7 +5995,9 @@
       <c r="E101" s="4">
         <v>1</v>
       </c>
-      <c r="G101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
@@ -5784,7 +6009,9 @@
       <c r="E102" s="4">
         <v>1</v>
       </c>
-      <c r="G102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
@@ -5800,7 +6027,9 @@
       <c r="E103" s="4">
         <v>1</v>
       </c>
-      <c r="G103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
@@ -5813,7 +6042,9 @@
         <v>1</v>
       </c>
       <c r="D104" s="4"/>
-      <c r="G104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
@@ -5826,7 +6057,9 @@
         <v>1</v>
       </c>
       <c r="D105" s="4"/>
-      <c r="G105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
@@ -5839,7 +6072,9 @@
         <v>1</v>
       </c>
       <c r="D106" s="4"/>
-      <c r="G106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
@@ -5855,7 +6090,9 @@
       <c r="E107" s="4">
         <v>1</v>
       </c>
-      <c r="G107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
@@ -5867,7 +6104,9 @@
       <c r="E108" s="4">
         <v>1</v>
       </c>
-      <c r="G108" s="1"/>
+      <c r="G108" s="1" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
@@ -5879,7 +6118,9 @@
       <c r="E109" s="4">
         <v>1</v>
       </c>
-      <c r="G109" s="1"/>
+      <c r="G109" s="1" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
@@ -5891,7 +6132,9 @@
       <c r="E110" s="4">
         <v>1</v>
       </c>
-      <c r="G110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
@@ -5903,7 +6146,9 @@
       <c r="E111" s="4">
         <v>1</v>
       </c>
-      <c r="G111" s="1"/>
+      <c r="G111" s="1" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
@@ -5915,7 +6160,9 @@
       <c r="E112" s="4">
         <v>1</v>
       </c>
-      <c r="G112" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
@@ -5927,7 +6174,9 @@
       <c r="E113" s="4">
         <v>1</v>
       </c>
-      <c r="G113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
@@ -5939,7 +6188,9 @@
       <c r="E114" s="4">
         <v>1</v>
       </c>
-      <c r="G114" s="1"/>
+      <c r="G114" s="1" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
@@ -5951,7 +6202,9 @@
       <c r="E115" s="4">
         <v>1</v>
       </c>
-      <c r="G115" s="1"/>
+      <c r="G115" s="1" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
@@ -5963,7 +6216,9 @@
       <c r="E116" s="4">
         <v>1</v>
       </c>
-      <c r="G116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
@@ -5975,7 +6230,9 @@
       <c r="E117" s="4">
         <v>1</v>
       </c>
-      <c r="G117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
@@ -5987,7 +6244,9 @@
       <c r="E118" s="4">
         <v>1</v>
       </c>
-      <c r="G118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
@@ -5999,7 +6258,9 @@
       <c r="E119" s="4">
         <v>1</v>
       </c>
-      <c r="G119" s="1"/>
+      <c r="G119" s="1" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
@@ -6011,7 +6272,9 @@
       <c r="E120" s="4">
         <v>1</v>
       </c>
-      <c r="G120" s="1"/>
+      <c r="G120" s="1" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
@@ -6023,7 +6286,9 @@
       <c r="E121" s="4">
         <v>1</v>
       </c>
-      <c r="G121" s="1"/>
+      <c r="G121" s="1" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
@@ -6035,7 +6300,9 @@
       <c r="E122" s="4">
         <v>1</v>
       </c>
-      <c r="G122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
@@ -6047,7 +6314,9 @@
       <c r="E123" s="4">
         <v>1</v>
       </c>
-      <c r="G123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
@@ -6059,7 +6328,9 @@
       <c r="E124" s="4">
         <v>1</v>
       </c>
-      <c r="G124" s="1"/>
+      <c r="G124" s="1" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
@@ -6071,7 +6342,9 @@
       <c r="E125" s="4">
         <v>1</v>
       </c>
-      <c r="G125" s="1"/>
+      <c r="G125" s="1" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
@@ -6083,7 +6356,9 @@
       <c r="E126" s="4">
         <v>1</v>
       </c>
-      <c r="G126" s="1"/>
+      <c r="G126" s="1" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
@@ -6095,7 +6370,9 @@
       <c r="E127" s="4">
         <v>1</v>
       </c>
-      <c r="G127" s="1"/>
+      <c r="G127" s="1" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
@@ -6111,7 +6388,9 @@
       <c r="E128" s="4">
         <v>1</v>
       </c>
-      <c r="G128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
@@ -6123,7 +6402,9 @@
       <c r="E129" s="4">
         <v>1</v>
       </c>
-      <c r="G129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
@@ -6135,7 +6416,9 @@
       <c r="E130" s="4">
         <v>1</v>
       </c>
-      <c r="G130" s="1"/>
+      <c r="G130" s="1" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
@@ -6147,7 +6430,9 @@
       <c r="E131" s="4">
         <v>1</v>
       </c>
-      <c r="G131" s="1"/>
+      <c r="G131" s="1" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
@@ -6159,7 +6444,9 @@
       <c r="E132" s="4">
         <v>1</v>
       </c>
-      <c r="G132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
@@ -6171,7 +6458,9 @@
       <c r="E133" s="4">
         <v>1</v>
       </c>
-      <c r="G133" s="1"/>
+      <c r="G133" s="1" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
@@ -6183,7 +6472,9 @@
       <c r="E134" s="4">
         <v>1</v>
       </c>
-      <c r="G134" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
@@ -6195,7 +6486,9 @@
       <c r="E135" s="4">
         <v>1</v>
       </c>
-      <c r="G135" s="1"/>
+      <c r="G135" s="1" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
@@ -6207,7 +6500,9 @@
       <c r="E136" s="4">
         <v>1</v>
       </c>
-      <c r="G136" s="1"/>
+      <c r="G136" s="1" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
@@ -6219,7 +6514,9 @@
       <c r="E137" s="4">
         <v>1</v>
       </c>
-      <c r="G137" s="1"/>
+      <c r="G137" s="1" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
@@ -6231,7 +6528,9 @@
       <c r="E138" s="4">
         <v>1</v>
       </c>
-      <c r="G138" s="1"/>
+      <c r="G138" s="1" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
@@ -6243,7 +6542,9 @@
       <c r="E139" s="4">
         <v>1</v>
       </c>
-      <c r="G139" s="1"/>
+      <c r="G139" s="1" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
@@ -6255,7 +6556,9 @@
       <c r="E140" s="4">
         <v>1</v>
       </c>
-      <c r="G140" s="1"/>
+      <c r="G140" s="1" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
@@ -6267,7 +6570,9 @@
       <c r="E141" s="4">
         <v>1</v>
       </c>
-      <c r="G141" s="1"/>
+      <c r="G141" s="1" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
@@ -6279,7 +6584,9 @@
       <c r="E142" s="4">
         <v>1</v>
       </c>
-      <c r="G142" s="1"/>
+      <c r="G142" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
@@ -6291,7 +6598,9 @@
       <c r="E143" s="4">
         <v>1</v>
       </c>
-      <c r="G143" s="1"/>
+      <c r="G143" s="1" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
@@ -6303,7 +6612,9 @@
       <c r="E144" s="4">
         <v>1</v>
       </c>
-      <c r="G144" s="1"/>
+      <c r="G144" s="1" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
@@ -6315,7 +6626,9 @@
       <c r="E145" s="4">
         <v>1</v>
       </c>
-      <c r="G145" s="1"/>
+      <c r="G145" s="1" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
@@ -6327,7 +6640,9 @@
       <c r="E146" s="4">
         <v>1</v>
       </c>
-      <c r="G146" s="1"/>
+      <c r="G146" s="1" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
@@ -6339,7 +6654,9 @@
       <c r="E147" s="4">
         <v>1</v>
       </c>
-      <c r="G147" s="1"/>
+      <c r="G147" s="1" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
@@ -6351,7 +6668,9 @@
       <c r="E148" s="4">
         <v>1</v>
       </c>
-      <c r="G148" s="1"/>
+      <c r="G148" s="1" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
@@ -6363,7 +6682,9 @@
       <c r="E149" s="4">
         <v>1</v>
       </c>
-      <c r="G149" s="1"/>
+      <c r="G149" s="1" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
@@ -6375,7 +6696,9 @@
       <c r="E150" s="4">
         <v>1</v>
       </c>
-      <c r="G150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
@@ -6387,7 +6710,9 @@
       <c r="E151" s="4">
         <v>1</v>
       </c>
-      <c r="G151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
@@ -6399,7 +6724,9 @@
       <c r="E152" s="4">
         <v>1</v>
       </c>
-      <c r="G152" s="1"/>
+      <c r="G152" s="1" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
@@ -6411,7 +6738,9 @@
       <c r="E153" s="4">
         <v>1</v>
       </c>
-      <c r="G153" s="1"/>
+      <c r="G153" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
@@ -6423,7 +6752,9 @@
       <c r="E154" s="4">
         <v>1</v>
       </c>
-      <c r="G154" s="1"/>
+      <c r="G154" s="1" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
@@ -6435,7 +6766,9 @@
       <c r="E155" s="4">
         <v>1</v>
       </c>
-      <c r="G155" s="1"/>
+      <c r="G155" s="1" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
@@ -6447,7 +6780,9 @@
       <c r="E156" s="4">
         <v>1</v>
       </c>
-      <c r="G156" s="1"/>
+      <c r="G156" s="1" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
@@ -6459,7 +6794,9 @@
       <c r="E157" s="4">
         <v>1</v>
       </c>
-      <c r="G157" s="1"/>
+      <c r="G157" s="1" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
@@ -6471,7 +6808,9 @@
       <c r="E158" s="4">
         <v>1</v>
       </c>
-      <c r="G158" s="1"/>
+      <c r="G158" s="1" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
@@ -6483,7 +6822,9 @@
       <c r="E159" s="4">
         <v>1</v>
       </c>
-      <c r="G159" s="1"/>
+      <c r="G159" s="1" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
@@ -6495,7 +6836,9 @@
       <c r="E160" s="4">
         <v>1</v>
       </c>
-      <c r="G160" s="1"/>
+      <c r="G160" s="1" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
@@ -6507,7 +6850,9 @@
       <c r="E161" s="4">
         <v>1</v>
       </c>
-      <c r="G161" s="1"/>
+      <c r="G161" s="1" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
@@ -6519,7 +6864,9 @@
       <c r="E162" s="4">
         <v>1</v>
       </c>
-      <c r="G162" s="1"/>
+      <c r="G162" s="1" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
@@ -6531,7 +6878,9 @@
       <c r="E163" s="4">
         <v>1</v>
       </c>
-      <c r="G163" s="1"/>
+      <c r="G163" s="1" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
@@ -6543,7 +6892,9 @@
       <c r="E164" s="4">
         <v>1</v>
       </c>
-      <c r="G164" s="1"/>
+      <c r="G164" s="1" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
@@ -6555,7 +6906,9 @@
       <c r="E165" s="4">
         <v>1</v>
       </c>
-      <c r="G165" s="1"/>
+      <c r="G165" s="1" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
@@ -6567,7 +6920,9 @@
       <c r="E166" s="4">
         <v>1</v>
       </c>
-      <c r="G166" s="1"/>
+      <c r="G166" s="1" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
@@ -6579,7 +6934,9 @@
       <c r="E167" s="4">
         <v>1</v>
       </c>
-      <c r="G167" s="1"/>
+      <c r="G167" s="1" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
@@ -6591,7 +6948,9 @@
       <c r="E168" s="4">
         <v>1</v>
       </c>
-      <c r="G168" s="1"/>
+      <c r="G168" s="1" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
@@ -6603,7 +6962,9 @@
       <c r="E169" s="4">
         <v>1</v>
       </c>
-      <c r="G169" s="1"/>
+      <c r="G169" s="1" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
@@ -6615,7 +6976,9 @@
       <c r="E170" s="4">
         <v>1</v>
       </c>
-      <c r="G170" s="1"/>
+      <c r="G170" s="1" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
@@ -6627,7 +6990,9 @@
       <c r="E171" s="4">
         <v>1</v>
       </c>
-      <c r="G171" s="1"/>
+      <c r="G171" s="1" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
@@ -6639,7 +7004,9 @@
       <c r="E172" s="4">
         <v>1</v>
       </c>
-      <c r="G172" s="1"/>
+      <c r="G172" s="1" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
@@ -6651,7 +7018,9 @@
       <c r="E173" s="4">
         <v>1</v>
       </c>
-      <c r="G173" s="1"/>
+      <c r="G173" s="1" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
@@ -6663,7 +7032,9 @@
       <c r="E174" s="4">
         <v>1</v>
       </c>
-      <c r="G174" s="1"/>
+      <c r="G174" s="1" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
@@ -6678,7 +7049,9 @@
       <c r="E175" s="4">
         <v>1</v>
       </c>
-      <c r="G175" s="1"/>
+      <c r="G175" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
@@ -6690,7 +7063,9 @@
       <c r="E176" s="4">
         <v>1</v>
       </c>
-      <c r="G176" s="1"/>
+      <c r="G176" s="1" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
@@ -6702,7 +7077,9 @@
       <c r="C177" s="3">
         <v>1</v>
       </c>
-      <c r="G177" s="1"/>
+      <c r="G177" s="1" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
@@ -6714,7 +7091,9 @@
       <c r="C178" s="3">
         <v>1</v>
       </c>
-      <c r="G178" s="1"/>
+      <c r="G178" s="1" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
@@ -6726,7 +7105,9 @@
       <c r="C179" s="3">
         <v>1</v>
       </c>
-      <c r="G179" s="1"/>
+      <c r="G179" s="1" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
@@ -6738,7 +7119,9 @@
       <c r="C180" s="3">
         <v>1</v>
       </c>
-      <c r="G180" s="1"/>
+      <c r="G180" s="1" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
@@ -6750,7 +7133,9 @@
       <c r="C181" s="3">
         <v>1</v>
       </c>
-      <c r="G181" s="1"/>
+      <c r="G181" s="1" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
@@ -6762,7 +7147,9 @@
       <c r="C182" s="3">
         <v>1</v>
       </c>
-      <c r="G182" s="1"/>
+      <c r="G182" s="1" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
@@ -6774,7 +7161,9 @@
       <c r="C183" s="3">
         <v>1</v>
       </c>
-      <c r="G183" s="1"/>
+      <c r="G183" s="1" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
@@ -6786,7 +7175,9 @@
       <c r="C184" s="3">
         <v>1</v>
       </c>
-      <c r="G184" s="1"/>
+      <c r="G184" s="1" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
@@ -6798,7 +7189,9 @@
       <c r="C185" s="3">
         <v>1</v>
       </c>
-      <c r="G185" s="1"/>
+      <c r="G185" s="1" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
@@ -6810,7 +7203,9 @@
       <c r="C186" s="3">
         <v>1</v>
       </c>
-      <c r="G186" s="1"/>
+      <c r="G186" s="1" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
@@ -6822,7 +7217,9 @@
       <c r="C187" s="3">
         <v>1</v>
       </c>
-      <c r="G187" s="1"/>
+      <c r="G187" s="1" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
@@ -6834,7 +7231,9 @@
       <c r="C188" s="3">
         <v>1</v>
       </c>
-      <c r="G188" s="1"/>
+      <c r="G188" s="1" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
@@ -6846,7 +7245,9 @@
       <c r="C189" s="3">
         <v>1</v>
       </c>
-      <c r="G189" s="1"/>
+      <c r="G189" s="1" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
@@ -6858,7 +7259,9 @@
       <c r="C190" s="3">
         <v>1</v>
       </c>
-      <c r="G190" s="1"/>
+      <c r="G190" s="1" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
@@ -6870,7 +7273,9 @@
       <c r="C191" s="3">
         <v>1</v>
       </c>
-      <c r="G191" s="1"/>
+      <c r="G191" s="1" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
@@ -6882,7 +7287,9 @@
       <c r="E192" s="4">
         <v>1</v>
       </c>
-      <c r="G192" s="1"/>
+      <c r="G192" s="1" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
@@ -6894,7 +7301,9 @@
       <c r="E193" s="4">
         <v>1</v>
       </c>
-      <c r="G193" s="1"/>
+      <c r="G193" s="1" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
@@ -6906,7 +7315,9 @@
       <c r="E194" s="4">
         <v>1</v>
       </c>
-      <c r="G194" s="1"/>
+      <c r="G194" s="1" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
@@ -6918,7 +7329,9 @@
       <c r="E195" s="4">
         <v>1</v>
       </c>
-      <c r="G195" s="1"/>
+      <c r="G195" s="1" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
@@ -6930,7 +7343,9 @@
       <c r="E196" s="4">
         <v>1</v>
       </c>
-      <c r="G196" s="1"/>
+      <c r="G196" s="1" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
@@ -6942,7 +7357,9 @@
       <c r="C197" s="3">
         <v>1</v>
       </c>
-      <c r="G197" s="1"/>
+      <c r="G197" s="1" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
@@ -6954,7 +7371,9 @@
       <c r="C198" s="3">
         <v>1</v>
       </c>
-      <c r="G198" s="1"/>
+      <c r="G198" s="1" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
@@ -6966,7 +7385,9 @@
       <c r="C199" s="3">
         <v>1</v>
       </c>
-      <c r="G199" s="1"/>
+      <c r="G199" s="1" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
@@ -6978,7 +7399,9 @@
       <c r="C200" s="3">
         <v>1</v>
       </c>
-      <c r="G200" s="1"/>
+      <c r="G200" s="1" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
@@ -6990,7 +7413,9 @@
       <c r="C201" s="3">
         <v>1</v>
       </c>
-      <c r="G201" s="1"/>
+      <c r="G201" s="1" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
@@ -7002,7 +7427,9 @@
       <c r="C202" s="3">
         <v>1</v>
       </c>
-      <c r="G202" s="1"/>
+      <c r="G202" s="1" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
@@ -7014,7 +7441,9 @@
       <c r="C203" s="3">
         <v>1</v>
       </c>
-      <c r="G203" s="1"/>
+      <c r="G203" s="1" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
@@ -7026,7 +7455,9 @@
       <c r="C204" s="3">
         <v>1</v>
       </c>
-      <c r="G204" s="1"/>
+      <c r="G204" s="1" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
@@ -7038,7 +7469,9 @@
       <c r="C205" s="3">
         <v>1</v>
       </c>
-      <c r="G205" s="1"/>
+      <c r="G205" s="1" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
@@ -7050,7 +7483,9 @@
       <c r="C206" s="3">
         <v>1</v>
       </c>
-      <c r="G206" s="1"/>
+      <c r="G206" s="1" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
@@ -7062,7 +7497,9 @@
       <c r="C207" s="3">
         <v>1</v>
       </c>
-      <c r="G207" s="1"/>
+      <c r="G207" s="1" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
@@ -7074,7 +7511,9 @@
       <c r="C208" s="3">
         <v>1</v>
       </c>
-      <c r="G208" s="1"/>
+      <c r="G208" s="1" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
@@ -7086,7 +7525,9 @@
       <c r="C209" s="3">
         <v>1</v>
       </c>
-      <c r="G209" s="1"/>
+      <c r="G209" s="1" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
@@ -7098,7 +7539,9 @@
       <c r="C210" s="3">
         <v>1</v>
       </c>
-      <c r="G210" s="1"/>
+      <c r="G210" s="1" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
@@ -7110,7 +7553,9 @@
       <c r="C211" s="3">
         <v>1</v>
       </c>
-      <c r="G211" s="1"/>
+      <c r="G211" s="1" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
@@ -7122,7 +7567,9 @@
       <c r="C212" s="3">
         <v>1</v>
       </c>
-      <c r="G212" s="1"/>
+      <c r="G212" s="1" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
@@ -7134,7 +7581,9 @@
       <c r="C213" s="3">
         <v>1</v>
       </c>
-      <c r="G213" s="1"/>
+      <c r="G213" s="1" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
@@ -7146,7 +7595,9 @@
       <c r="C214" s="3">
         <v>1</v>
       </c>
-      <c r="G214" s="1"/>
+      <c r="G214" s="1" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
@@ -7158,7 +7609,9 @@
       <c r="C215" s="3">
         <v>1</v>
       </c>
-      <c r="G215" s="1"/>
+      <c r="G215" s="1" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
@@ -7170,7 +7623,9 @@
       <c r="C216" s="3">
         <v>1</v>
       </c>
-      <c r="G216" s="1"/>
+      <c r="G216" s="1" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
@@ -7182,7 +7637,9 @@
       <c r="C217" s="3">
         <v>1</v>
       </c>
-      <c r="G217" s="1"/>
+      <c r="G217" s="1" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
@@ -7194,7 +7651,9 @@
       <c r="C218" s="3">
         <v>1</v>
       </c>
-      <c r="G218" s="1"/>
+      <c r="G218" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
@@ -7206,7 +7665,9 @@
       <c r="C219" s="3">
         <v>1</v>
       </c>
-      <c r="G219" s="1"/>
+      <c r="G219" s="1" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220">
@@ -7218,7 +7679,9 @@
       <c r="C220" s="3">
         <v>1</v>
       </c>
-      <c r="G220" s="1"/>
+      <c r="G220" s="1" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
@@ -7230,7 +7693,9 @@
       <c r="C221" s="3">
         <v>1</v>
       </c>
-      <c r="G221" s="1"/>
+      <c r="G221" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222">
@@ -7242,7 +7707,9 @@
       <c r="C222" s="3">
         <v>1</v>
       </c>
-      <c r="G222" s="1"/>
+      <c r="G222" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223">
@@ -7254,7 +7721,9 @@
       <c r="C223" s="3">
         <v>1</v>
       </c>
-      <c r="G223" s="1"/>
+      <c r="G223" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224">
@@ -7266,7 +7735,9 @@
       <c r="C224" s="3">
         <v>1</v>
       </c>
-      <c r="G224" s="1"/>
+      <c r="G224" s="1" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225">
@@ -7278,7 +7749,9 @@
       <c r="C225" s="3">
         <v>1</v>
       </c>
-      <c r="G225" s="1"/>
+      <c r="G225" s="1" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226">
@@ -7290,7 +7763,9 @@
       <c r="C226" s="3">
         <v>1</v>
       </c>
-      <c r="G226" s="1"/>
+      <c r="G226" s="1" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227">
@@ -7302,7 +7777,9 @@
       <c r="C227" s="3">
         <v>1</v>
       </c>
-      <c r="G227" s="1"/>
+      <c r="G227" s="1" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228">
@@ -7314,7 +7791,9 @@
       <c r="C228" s="3">
         <v>1</v>
       </c>
-      <c r="G228" s="1"/>
+      <c r="G228" s="1" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229">
@@ -7326,7 +7805,9 @@
       <c r="C229" s="3">
         <v>1</v>
       </c>
-      <c r="G229" s="1"/>
+      <c r="G229" s="1" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230">
@@ -7338,7 +7819,9 @@
       <c r="C230" s="3">
         <v>1</v>
       </c>
-      <c r="G230" s="1"/>
+      <c r="G230" s="1" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231">
@@ -7350,7 +7833,9 @@
       <c r="D231" s="3">
         <v>1</v>
       </c>
-      <c r="G231" s="1"/>
+      <c r="G231" s="1" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232">
@@ -7365,7 +7850,9 @@
       <c r="E232" s="4">
         <v>1</v>
       </c>
-      <c r="G232" s="1"/>
+      <c r="G232" s="1" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233">
@@ -7377,7 +7864,9 @@
       <c r="E233" s="4">
         <v>1</v>
       </c>
-      <c r="G233" s="1"/>
+      <c r="G233" s="1" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234">
@@ -7389,7 +7878,9 @@
       <c r="E234" s="4">
         <v>1</v>
       </c>
-      <c r="G234" s="1"/>
+      <c r="G234" s="1" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235">
@@ -7401,7 +7892,9 @@
       <c r="E235" s="4">
         <v>1</v>
       </c>
-      <c r="G235" s="1"/>
+      <c r="G235" s="1" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236">
@@ -7413,7 +7906,9 @@
       <c r="E236" s="4">
         <v>1</v>
       </c>
-      <c r="G236" s="1"/>
+      <c r="G236" s="1" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237">
@@ -7425,7 +7920,9 @@
       <c r="E237" s="4">
         <v>1</v>
       </c>
-      <c r="G237" s="1"/>
+      <c r="G237" s="1" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238">
@@ -7437,7 +7934,9 @@
       <c r="E238" s="4">
         <v>1</v>
       </c>
-      <c r="G238" s="1"/>
+      <c r="G238" s="1" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239">
@@ -7449,7 +7948,9 @@
       <c r="E239" s="4">
         <v>1</v>
       </c>
-      <c r="G239" s="1"/>
+      <c r="G239" s="1" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240">
@@ -7461,7 +7962,9 @@
       <c r="E240" s="4">
         <v>1</v>
       </c>
-      <c r="G240" s="1"/>
+      <c r="G240" s="1" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241">
@@ -7473,7 +7976,9 @@
       <c r="E241" s="4">
         <v>1</v>
       </c>
-      <c r="G241" s="1"/>
+      <c r="G241" s="1" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242">
@@ -7485,7 +7990,9 @@
       <c r="E242" s="4">
         <v>1</v>
       </c>
-      <c r="G242" s="1"/>
+      <c r="G242" s="1" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243">
@@ -7497,7 +8004,9 @@
       <c r="E243" s="4">
         <v>1</v>
       </c>
-      <c r="G243" s="1"/>
+      <c r="G243" s="1" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244">
@@ -7509,7 +8018,9 @@
       <c r="E244" s="4">
         <v>1</v>
       </c>
-      <c r="G244" s="1"/>
+      <c r="G244" s="1" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245">
@@ -7521,7 +8032,9 @@
       <c r="E245" s="4">
         <v>1</v>
       </c>
-      <c r="G245" s="1"/>
+      <c r="G245" s="1" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246">
@@ -7533,7 +8046,9 @@
       <c r="E246" s="4">
         <v>1</v>
       </c>
-      <c r="G246" s="1"/>
+      <c r="G246" s="1" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247">
@@ -7545,7 +8060,9 @@
       <c r="E247" s="4">
         <v>1</v>
       </c>
-      <c r="G247" s="1"/>
+      <c r="G247" s="1" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248">
@@ -7557,7 +8074,9 @@
       <c r="E248" s="4">
         <v>1</v>
       </c>
-      <c r="G248" s="1"/>
+      <c r="G248" s="1" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249">
@@ -7569,7 +8088,9 @@
       <c r="E249" s="4">
         <v>1</v>
       </c>
-      <c r="G249" s="1"/>
+      <c r="G249" s="1" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250">
@@ -7581,7 +8102,9 @@
       <c r="E250" s="4">
         <v>1</v>
       </c>
-      <c r="G250" s="1"/>
+      <c r="G250" s="1" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251">
@@ -7593,7 +8116,9 @@
       <c r="C251" s="3">
         <v>1</v>
       </c>
-      <c r="G251" s="1"/>
+      <c r="G251" s="1" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252">
@@ -7605,7 +8130,9 @@
       <c r="C252" s="3">
         <v>1</v>
       </c>
-      <c r="G252" s="1"/>
+      <c r="G252" s="1" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253">
@@ -7617,7 +8144,9 @@
       <c r="C253" s="3">
         <v>1</v>
       </c>
-      <c r="G253" s="1"/>
+      <c r="G253" s="1" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254">
@@ -7629,7 +8158,9 @@
       <c r="C254" s="3">
         <v>1</v>
       </c>
-      <c r="G254" s="1"/>
+      <c r="G254" s="1" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255">
@@ -7641,7 +8172,9 @@
       <c r="E255" s="4">
         <v>1</v>
       </c>
-      <c r="G255" s="1"/>
+      <c r="G255" s="1" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256">
@@ -7653,7 +8186,9 @@
       <c r="E256" s="4">
         <v>1</v>
       </c>
-      <c r="G256" s="1"/>
+      <c r="G256" s="1" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257">
@@ -7665,7 +8200,9 @@
       <c r="E257" s="4">
         <v>1</v>
       </c>
-      <c r="G257" s="1"/>
+      <c r="G257" s="1" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258">
@@ -7677,7 +8214,9 @@
       <c r="E258" s="4">
         <v>1</v>
       </c>
-      <c r="G258" s="1"/>
+      <c r="G258" s="1" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259">
@@ -7689,7 +8228,9 @@
       <c r="E259" s="4">
         <v>1</v>
       </c>
-      <c r="G259" s="1"/>
+      <c r="G259" s="1" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260">
@@ -7701,7 +8242,9 @@
       <c r="E260" s="4">
         <v>1</v>
       </c>
-      <c r="G260" s="1"/>
+      <c r="G260" s="1" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261">
@@ -7713,7 +8256,9 @@
       <c r="E261" s="4">
         <v>1</v>
       </c>
-      <c r="G261" s="1"/>
+      <c r="G261" s="1" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262">
@@ -7725,7 +8270,9 @@
       <c r="E262" s="4">
         <v>1</v>
       </c>
-      <c r="G262" s="1"/>
+      <c r="G262" s="1" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263">
@@ -7737,7 +8284,9 @@
       <c r="E263" s="4">
         <v>1</v>
       </c>
-      <c r="G263" s="1"/>
+      <c r="G263" s="1" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264">
@@ -7749,7 +8298,9 @@
       <c r="C264" s="3">
         <v>1</v>
       </c>
-      <c r="G264" s="1"/>
+      <c r="G264" s="1" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265">
@@ -7761,7 +8312,9 @@
       <c r="E265" s="4">
         <v>1</v>
       </c>
-      <c r="G265" s="1"/>
+      <c r="G265" s="1" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266">
@@ -7773,7 +8326,9 @@
       <c r="E266" s="4">
         <v>1</v>
       </c>
-      <c r="G266" s="1"/>
+      <c r="G266" s="1" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267">
@@ -7785,7 +8340,9 @@
       <c r="E267" s="4">
         <v>1</v>
       </c>
-      <c r="G267" s="1"/>
+      <c r="G267" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268">
@@ -7797,7 +8354,9 @@
       <c r="E268" s="4">
         <v>1</v>
       </c>
-      <c r="G268" s="1"/>
+      <c r="G268" s="1" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269">
@@ -7809,7 +8368,9 @@
       <c r="E269" s="4">
         <v>1</v>
       </c>
-      <c r="G269" s="1"/>
+      <c r="G269" s="1" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270">
@@ -7821,7 +8382,9 @@
       <c r="E270" s="4">
         <v>1</v>
       </c>
-      <c r="G270" s="1"/>
+      <c r="G270" s="1" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271">
@@ -7833,7 +8396,9 @@
       <c r="E271" s="4">
         <v>1</v>
       </c>
-      <c r="G271" s="1"/>
+      <c r="G271" s="1" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272">
@@ -7845,7 +8410,9 @@
       <c r="E272" s="4">
         <v>1</v>
       </c>
-      <c r="G272" s="1"/>
+      <c r="G272" s="1" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273">
@@ -7857,7 +8424,9 @@
       <c r="E273" s="4">
         <v>1</v>
       </c>
-      <c r="G273" s="1"/>
+      <c r="G273" s="1" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274">
@@ -7869,7 +8438,9 @@
       <c r="E274" s="4">
         <v>1</v>
       </c>
-      <c r="G274" s="1"/>
+      <c r="G274" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275">
@@ -7881,7 +8452,9 @@
       <c r="E275" s="4">
         <v>1</v>
       </c>
-      <c r="G275" s="1"/>
+      <c r="G275" s="1" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276">
@@ -7893,7 +8466,9 @@
       <c r="E276" s="4">
         <v>1</v>
       </c>
-      <c r="G276" s="1"/>
+      <c r="G276" s="1" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277">
@@ -7905,7 +8480,9 @@
       <c r="E277" s="4">
         <v>1</v>
       </c>
-      <c r="G277" s="1"/>
+      <c r="G277" s="1" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278">
@@ -7917,7 +8494,9 @@
       <c r="E278" s="4">
         <v>1</v>
       </c>
-      <c r="G278" s="1"/>
+      <c r="G278" s="1" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279">
@@ -7929,7 +8508,9 @@
       <c r="E279" s="4">
         <v>1</v>
       </c>
-      <c r="G279" s="1"/>
+      <c r="G279" s="1" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280">
@@ -7944,7 +8525,9 @@
       <c r="E280" s="4">
         <v>1</v>
       </c>
-      <c r="G280" s="1"/>
+      <c r="G280" s="1" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281">
@@ -7959,7 +8542,9 @@
       <c r="E281" s="4">
         <v>1</v>
       </c>
-      <c r="G281" s="1"/>
+      <c r="G281" s="1" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282">
@@ -7974,7 +8559,9 @@
       <c r="E282" s="4">
         <v>1</v>
       </c>
-      <c r="G282" s="1"/>
+      <c r="G282" s="1" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283">
@@ -7989,7 +8576,9 @@
       <c r="E283" s="4">
         <v>1</v>
       </c>
-      <c r="G283" s="1"/>
+      <c r="G283" s="1" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284">
@@ -8004,7 +8593,9 @@
       <c r="E284" s="4">
         <v>1</v>
       </c>
-      <c r="G284" s="1"/>
+      <c r="G284" s="1" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285">
@@ -8019,7 +8610,9 @@
       <c r="E285" s="4">
         <v>1</v>
       </c>
-      <c r="G285" s="1"/>
+      <c r="G285" s="1" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286">
@@ -8034,7 +8627,9 @@
       <c r="E286" s="4">
         <v>1</v>
       </c>
-      <c r="G286" s="1"/>
+      <c r="G286" s="1" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287">
@@ -8049,7 +8644,9 @@
       <c r="E287" s="4">
         <v>1</v>
       </c>
-      <c r="G287" s="1"/>
+      <c r="G287" s="1" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288">
@@ -8064,7 +8661,9 @@
       <c r="E288" s="4">
         <v>1</v>
       </c>
-      <c r="G288" s="1"/>
+      <c r="G288" s="1" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289">
@@ -8079,7 +8678,9 @@
       <c r="E289" s="4">
         <v>1</v>
       </c>
-      <c r="G289" s="1"/>
+      <c r="G289" s="1" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290">
@@ -8091,7 +8692,9 @@
       <c r="E290" s="4">
         <v>1</v>
       </c>
-      <c r="G290" s="1"/>
+      <c r="G290" s="1" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291">
@@ -8103,7 +8706,9 @@
       <c r="E291" s="4">
         <v>1</v>
       </c>
-      <c r="G291" s="1"/>
+      <c r="G291" s="1" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292">
@@ -8115,7 +8720,9 @@
       <c r="E292" s="4">
         <v>1</v>
       </c>
-      <c r="G292" s="1"/>
+      <c r="G292" s="1" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293">
@@ -8127,7 +8734,9 @@
       <c r="E293" s="4">
         <v>1</v>
       </c>
-      <c r="G293" s="1"/>
+      <c r="G293" s="1" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294">
@@ -8139,7 +8748,9 @@
       <c r="E294" s="4">
         <v>1</v>
       </c>
-      <c r="G294" s="1"/>
+      <c r="G294" s="1" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295">
@@ -8151,7 +8762,9 @@
       <c r="C295" s="3">
         <v>1</v>
       </c>
-      <c r="G295" s="1"/>
+      <c r="G295" s="1" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296">
@@ -8163,7 +8776,9 @@
       <c r="C296" s="3">
         <v>1</v>
       </c>
-      <c r="G296" s="1"/>
+      <c r="G296" s="1" t="s">
+        <v>1147</v>
+      </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297">
@@ -8178,7 +8793,9 @@
       <c r="E297" s="3">
         <v>1</v>
       </c>
-      <c r="G297" s="1"/>
+      <c r="G297" s="1" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298">
@@ -8193,7 +8810,9 @@
       <c r="E298" s="3">
         <v>1</v>
       </c>
-      <c r="G298" s="1"/>
+      <c r="G298" s="1" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299">
@@ -8208,7 +8827,9 @@
       <c r="E299" s="3">
         <v>1</v>
       </c>
-      <c r="G299" s="1"/>
+      <c r="G299" s="1" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300">
@@ -8223,7 +8844,9 @@
       <c r="E300" s="3">
         <v>1</v>
       </c>
-      <c r="G300" s="1"/>
+      <c r="G300" s="1" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301">
@@ -8238,7 +8861,9 @@
       <c r="E301" s="3">
         <v>1</v>
       </c>
-      <c r="G301" s="1"/>
+      <c r="G301" s="1" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302">
@@ -8253,7 +8878,9 @@
       <c r="E302" s="3">
         <v>1</v>
       </c>
-      <c r="G302" s="1"/>
+      <c r="G302" s="1" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303">
@@ -8265,7 +8892,9 @@
       <c r="C303" s="3">
         <v>1</v>
       </c>
-      <c r="G303" s="1"/>
+      <c r="G303" s="1" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304">
@@ -8277,7 +8906,9 @@
       <c r="C304" s="3">
         <v>1</v>
       </c>
-      <c r="G304" s="1"/>
+      <c r="G304" s="1" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305">
@@ -8289,7 +8920,9 @@
       <c r="E305" s="5">
         <v>1</v>
       </c>
-      <c r="G305" s="1"/>
+      <c r="G305" s="1" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306">
@@ -8301,7 +8934,9 @@
       <c r="E306" s="5">
         <v>1</v>
       </c>
-      <c r="G306" s="1"/>
+      <c r="G306" s="1" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307">
@@ -8313,7 +8948,9 @@
       <c r="E307" s="5">
         <v>1</v>
       </c>
-      <c r="G307" s="1"/>
+      <c r="G307" s="1" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308">
@@ -8325,7 +8962,9 @@
       <c r="E308" s="5">
         <v>1</v>
       </c>
-      <c r="G308" s="1"/>
+      <c r="G308" s="1" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309">
@@ -8337,7 +8976,9 @@
       <c r="E309" s="5">
         <v>1</v>
       </c>
-      <c r="G309" s="1"/>
+      <c r="G309" s="1" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310">
@@ -8349,7 +8990,9 @@
       <c r="E310" s="5">
         <v>1</v>
       </c>
-      <c r="G310" s="1"/>
+      <c r="G310" s="1" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311">
@@ -8361,7 +9004,9 @@
       <c r="E311" s="5">
         <v>1</v>
       </c>
-      <c r="G311" s="1"/>
+      <c r="G311" s="1" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312">
@@ -8373,7 +9018,9 @@
       <c r="E312" s="5">
         <v>1</v>
       </c>
-      <c r="G312" s="1"/>
+      <c r="G312" s="1" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313">
@@ -8385,7 +9032,9 @@
       <c r="E313" s="5">
         <v>1</v>
       </c>
-      <c r="G313" s="1"/>
+      <c r="G313" s="1" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314">
@@ -8397,7 +9046,9 @@
       <c r="E314" s="5">
         <v>1</v>
       </c>
-      <c r="G314" s="1"/>
+      <c r="G314" s="1" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315">
@@ -8409,7 +9060,9 @@
       <c r="E315" s="5">
         <v>1</v>
       </c>
-      <c r="G315" s="1"/>
+      <c r="G315" s="1" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316">
@@ -8421,7 +9074,9 @@
       <c r="E316" s="5">
         <v>1</v>
       </c>
-      <c r="G316" s="1"/>
+      <c r="G316" s="1" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317">
@@ -8433,7 +9088,9 @@
       <c r="E317" s="5">
         <v>1</v>
       </c>
-      <c r="G317" s="1"/>
+      <c r="G317" s="1" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318">
@@ -8445,7 +9102,9 @@
       <c r="E318" s="5">
         <v>1</v>
       </c>
-      <c r="G318" s="1"/>
+      <c r="G318" s="1" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319">
@@ -8457,7 +9116,9 @@
       <c r="E319" s="5">
         <v>1</v>
       </c>
-      <c r="G319" s="1"/>
+      <c r="G319" s="1" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320">
@@ -8469,7 +9130,9 @@
       <c r="E320" s="5">
         <v>1</v>
       </c>
-      <c r="G320" s="1"/>
+      <c r="G320" s="1" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321">
@@ -8481,7 +9144,9 @@
       <c r="E321" s="5">
         <v>1</v>
       </c>
-      <c r="G321" s="1"/>
+      <c r="G321" s="1" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322">
@@ -8493,7 +9158,9 @@
       <c r="E322" s="5">
         <v>1</v>
       </c>
-      <c r="G322" s="1"/>
+      <c r="G322" s="1" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323">
@@ -8505,7 +9172,9 @@
       <c r="E323" s="5">
         <v>1</v>
       </c>
-      <c r="G323" s="1"/>
+      <c r="G323" s="1" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324">
@@ -8517,7 +9186,9 @@
       <c r="E324" s="5">
         <v>1</v>
       </c>
-      <c r="G324" s="1"/>
+      <c r="G324" s="1" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325">
@@ -8529,7 +9200,9 @@
       <c r="E325" s="5">
         <v>1</v>
       </c>
-      <c r="G325" s="1"/>
+      <c r="G325" s="1" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326">
@@ -8541,7 +9214,9 @@
       <c r="E326" s="5">
         <v>1</v>
       </c>
-      <c r="G326" s="1"/>
+      <c r="G326" s="1" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327">
@@ -8553,7 +9228,9 @@
       <c r="E327" s="5">
         <v>1</v>
       </c>
-      <c r="G327" s="1"/>
+      <c r="G327" s="1" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328">
@@ -8565,7 +9242,9 @@
       <c r="E328" s="5">
         <v>1</v>
       </c>
-      <c r="G328" s="1"/>
+      <c r="G328" s="1" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="329" spans="1:7">
       <c r="A329">
@@ -8577,7 +9256,9 @@
       <c r="E329" s="5">
         <v>1</v>
       </c>
-      <c r="G329" s="1"/>
+      <c r="G329" s="1" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="330" spans="1:7">
       <c r="A330">
@@ -8589,7 +9270,9 @@
       <c r="E330" s="5">
         <v>1</v>
       </c>
-      <c r="G330" s="1"/>
+      <c r="G330" s="1" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331">
@@ -8601,7 +9284,9 @@
       <c r="E331" s="5">
         <v>1</v>
       </c>
-      <c r="G331" s="1"/>
+      <c r="G331" s="1" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332">
@@ -8613,7 +9298,9 @@
       <c r="E332" s="5">
         <v>1</v>
       </c>
-      <c r="G332" s="1"/>
+      <c r="G332" s="1" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333">
@@ -8625,7 +9312,9 @@
       <c r="E333" s="5">
         <v>1</v>
       </c>
-      <c r="G333" s="1"/>
+      <c r="G333" s="1" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="334" spans="1:7">
       <c r="A334">
@@ -8637,7 +9326,9 @@
       <c r="E334" s="5">
         <v>1</v>
       </c>
-      <c r="G334" s="1"/>
+      <c r="G334" s="1" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335">
@@ -8649,7 +9340,9 @@
       <c r="E335" s="5">
         <v>1</v>
       </c>
-      <c r="G335" s="1"/>
+      <c r="G335" s="1" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="336" spans="1:7">
       <c r="A336">
@@ -8661,7 +9354,9 @@
       <c r="E336" s="5">
         <v>1</v>
       </c>
-      <c r="G336" s="1"/>
+      <c r="G336" s="1" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337">
@@ -8673,7 +9368,9 @@
       <c r="E337" s="5">
         <v>1</v>
       </c>
-      <c r="G337" s="1"/>
+      <c r="G337" s="1" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338">
@@ -8685,7 +9382,9 @@
       <c r="E338" s="5">
         <v>1</v>
       </c>
-      <c r="G338" s="1"/>
+      <c r="G338" s="1" t="s">
+        <v>905</v>
+      </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339">
@@ -8697,7 +9396,9 @@
       <c r="E339" s="5">
         <v>1</v>
       </c>
-      <c r="G339" s="1"/>
+      <c r="G339" s="1" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340">
@@ -8709,7 +9410,9 @@
       <c r="E340" s="5">
         <v>1</v>
       </c>
-      <c r="G340" s="1"/>
+      <c r="G340" s="1" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341">
@@ -8721,7 +9424,9 @@
       <c r="E341" s="5">
         <v>1</v>
       </c>
-      <c r="G341" s="1"/>
+      <c r="G341" s="1" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342">
@@ -8733,7 +9438,9 @@
       <c r="E342" s="5">
         <v>1</v>
       </c>
-      <c r="G342" s="1"/>
+      <c r="G342" s="1" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343">
@@ -8745,7 +9452,9 @@
       <c r="E343" s="5">
         <v>1</v>
       </c>
-      <c r="G343" s="1"/>
+      <c r="G343" s="1" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344">
@@ -8757,7 +9466,9 @@
       <c r="E344" s="5">
         <v>1</v>
       </c>
-      <c r="G344" s="1"/>
+      <c r="G344" s="1" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345">
@@ -8769,7 +9480,9 @@
       <c r="E345" s="5">
         <v>1</v>
       </c>
-      <c r="G345" s="1"/>
+      <c r="G345" s="1" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="346" spans="1:7">
       <c r="A346">
@@ -8781,7 +9494,9 @@
       <c r="E346" s="5">
         <v>1</v>
       </c>
-      <c r="G346" s="1"/>
+      <c r="G346" s="1" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347">
@@ -8793,7 +9508,9 @@
       <c r="E347" s="5">
         <v>1</v>
       </c>
-      <c r="G347" s="1"/>
+      <c r="G347" s="1" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348">
@@ -8805,7 +9522,9 @@
       <c r="E348" s="5">
         <v>1</v>
       </c>
-      <c r="G348" s="1"/>
+      <c r="G348" s="1" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349">
@@ -8817,7 +9536,9 @@
       <c r="E349" s="5">
         <v>1</v>
       </c>
-      <c r="G349" s="1"/>
+      <c r="G349" s="1" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350">
@@ -8829,7 +9550,9 @@
       <c r="E350" s="5">
         <v>1</v>
       </c>
-      <c r="G350" s="1"/>
+      <c r="G350" s="1" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351">
@@ -8841,7 +9564,9 @@
       <c r="E351" s="5">
         <v>1</v>
       </c>
-      <c r="G351" s="1"/>
+      <c r="G351" s="1" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352">
@@ -8853,7 +9578,9 @@
       <c r="E352" s="5">
         <v>1</v>
       </c>
-      <c r="G352" s="1"/>
+      <c r="G352" s="1" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353">
@@ -8865,7 +9592,9 @@
       <c r="E353" s="5">
         <v>1</v>
       </c>
-      <c r="G353" s="1"/>
+      <c r="G353" s="1" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354">
@@ -8877,7 +9606,9 @@
       <c r="E354" s="5">
         <v>1</v>
       </c>
-      <c r="G354" s="1"/>
+      <c r="G354" s="1" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355">
@@ -8886,7 +9617,9 @@
       <c r="B355" t="s">
         <v>353</v>
       </c>
-      <c r="G355" s="1"/>
+      <c r="G355" s="1" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356">
@@ -8898,7 +9631,9 @@
       <c r="C356" s="3">
         <v>1</v>
       </c>
-      <c r="G356" s="1"/>
+      <c r="G356" s="1" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357">
@@ -8910,7 +9645,9 @@
       <c r="C357" s="3">
         <v>1</v>
       </c>
-      <c r="G357" s="1"/>
+      <c r="G357" s="1" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358">
@@ -8922,7 +9659,9 @@
       <c r="C358" s="3">
         <v>1</v>
       </c>
-      <c r="G358" s="1"/>
+      <c r="G358" s="1" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359">
@@ -8934,7 +9673,9 @@
       <c r="C359" s="3">
         <v>1</v>
       </c>
-      <c r="G359" s="1"/>
+      <c r="G359" s="1" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360">
@@ -8946,7 +9687,9 @@
       <c r="C360" s="3">
         <v>1</v>
       </c>
-      <c r="G360" s="1"/>
+      <c r="G360" s="1" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="361" spans="1:7">
       <c r="A361">
@@ -8958,7 +9701,9 @@
       <c r="E361" s="3">
         <v>1</v>
       </c>
-      <c r="G361" s="1"/>
+      <c r="G361" s="1" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362">
@@ -8970,7 +9715,9 @@
       <c r="E362" s="3">
         <v>1</v>
       </c>
-      <c r="G362" s="1"/>
+      <c r="G362" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="363" spans="1:7">
       <c r="A363">
@@ -8982,7 +9729,9 @@
       <c r="E363" s="3">
         <v>1</v>
       </c>
-      <c r="G363" s="1"/>
+      <c r="G363" s="1" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="364" spans="1:7">
       <c r="A364">
@@ -8997,7 +9746,9 @@
       <c r="E364" s="3">
         <v>1</v>
       </c>
-      <c r="G364" s="1"/>
+      <c r="G364" s="1" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="365" spans="1:7">
       <c r="A365">
@@ -9009,7 +9760,9 @@
       <c r="E365" s="3">
         <v>1</v>
       </c>
-      <c r="G365" s="1"/>
+      <c r="G365" s="1" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="366" spans="1:7">
       <c r="A366">
@@ -9021,7 +9774,9 @@
       <c r="E366" s="3">
         <v>1</v>
       </c>
-      <c r="G366" s="1"/>
+      <c r="G366" s="1" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="367" spans="1:7">
       <c r="A367">
@@ -9033,7 +9788,9 @@
       <c r="E367" s="3">
         <v>1</v>
       </c>
-      <c r="G367" s="1"/>
+      <c r="G367" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="368" spans="1:7">
       <c r="A368">
@@ -9045,7 +9802,9 @@
       <c r="E368" s="3">
         <v>1</v>
       </c>
-      <c r="G368" s="1"/>
+      <c r="G368" s="1" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="369" spans="1:7">
       <c r="A369">
@@ -9057,7 +9816,9 @@
       <c r="E369" s="3">
         <v>1</v>
       </c>
-      <c r="G369" s="1"/>
+      <c r="G369" s="1" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="370" spans="1:7">
       <c r="A370">
@@ -9069,7 +9830,9 @@
       <c r="E370" s="3">
         <v>1</v>
       </c>
-      <c r="G370" s="1"/>
+      <c r="G370" s="1" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="371" spans="1:7">
       <c r="A371">
@@ -9081,7 +9844,9 @@
       <c r="E371" s="3">
         <v>1</v>
       </c>
-      <c r="G371" s="1"/>
+      <c r="G371" s="1" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="372" spans="1:7">
       <c r="A372">
@@ -9093,7 +9858,9 @@
       <c r="E372" s="3">
         <v>1</v>
       </c>
-      <c r="G372" s="1"/>
+      <c r="G372" s="1" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="373" spans="1:7">
       <c r="A373">
@@ -9105,7 +9872,9 @@
       <c r="E373" s="3">
         <v>1</v>
       </c>
-      <c r="G373" s="1"/>
+      <c r="G373" s="1" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="374" spans="1:7">
       <c r="A374">
@@ -9117,7 +9886,9 @@
       <c r="E374" s="3">
         <v>1</v>
       </c>
-      <c r="G374" s="1"/>
+      <c r="G374" s="1" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="375" spans="1:7">
       <c r="A375">
@@ -9129,7 +9900,9 @@
       <c r="E375" s="3">
         <v>1</v>
       </c>
-      <c r="G375" s="1"/>
+      <c r="G375" s="1" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="376" spans="1:7">
       <c r="A376">
@@ -9141,7 +9914,9 @@
       <c r="E376" s="3">
         <v>1</v>
       </c>
-      <c r="G376" s="1"/>
+      <c r="G376" s="1" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="377" spans="1:7">
       <c r="A377">
@@ -9153,7 +9928,9 @@
       <c r="E377" s="3">
         <v>1</v>
       </c>
-      <c r="G377" s="1"/>
+      <c r="G377" s="1" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row r="378" spans="1:7">
       <c r="A378">
@@ -9165,7 +9942,9 @@
       <c r="E378" s="3">
         <v>1</v>
       </c>
-      <c r="G378" s="1"/>
+      <c r="G378" s="1" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="379" spans="1:7">
       <c r="A379">
@@ -9177,7 +9956,9 @@
       <c r="E379" s="3">
         <v>1</v>
       </c>
-      <c r="G379" s="1"/>
+      <c r="G379" s="1" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="380" spans="1:7">
       <c r="A380">
@@ -9189,7 +9970,9 @@
       <c r="E380" s="3">
         <v>1</v>
       </c>
-      <c r="G380" s="1"/>
+      <c r="G380" s="1" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="381" spans="1:7">
       <c r="A381">
@@ -9201,7 +9984,9 @@
       <c r="E381" s="3">
         <v>1</v>
       </c>
-      <c r="G381" s="1"/>
+      <c r="G381" s="1" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="382" spans="1:7">
       <c r="A382">
@@ -9213,7 +9998,9 @@
       <c r="E382" s="3">
         <v>1</v>
       </c>
-      <c r="G382" s="1"/>
+      <c r="G382" s="1" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="383" spans="1:7">
       <c r="A383">
@@ -9225,7 +10012,9 @@
       <c r="E383" s="3">
         <v>1</v>
       </c>
-      <c r="G383" s="1"/>
+      <c r="G383" s="1" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="384" spans="1:7">
       <c r="A384">
@@ -9237,7 +10026,9 @@
       <c r="E384" s="3">
         <v>1</v>
       </c>
-      <c r="G384" s="1"/>
+      <c r="G384" s="1" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385">
@@ -9249,7 +10040,9 @@
       <c r="E385" s="3">
         <v>1</v>
       </c>
-      <c r="G385" s="1"/>
+      <c r="G385" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="386" spans="1:7">
       <c r="A386">
@@ -9261,7 +10054,9 @@
       <c r="E386" s="3">
         <v>1</v>
       </c>
-      <c r="G386" s="1"/>
+      <c r="G386" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="387" spans="1:7">
       <c r="A387">
@@ -9273,7 +10068,9 @@
       <c r="E387" s="3">
         <v>1</v>
       </c>
-      <c r="G387" s="1"/>
+      <c r="G387" s="1" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="388" spans="1:7">
       <c r="A388">
@@ -9285,7 +10082,9 @@
       <c r="E388" s="3">
         <v>1</v>
       </c>
-      <c r="G388" s="1"/>
+      <c r="G388" s="1" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="389" spans="1:7">
       <c r="A389">
@@ -9297,7 +10096,9 @@
       <c r="E389" s="3">
         <v>1</v>
       </c>
-      <c r="G389" s="1"/>
+      <c r="G389" s="1" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390">
@@ -9309,7 +10110,9 @@
       <c r="E390" s="3">
         <v>1</v>
       </c>
-      <c r="G390" s="1"/>
+      <c r="G390" s="1" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="391" spans="1:7">
       <c r="A391">
@@ -9321,7 +10124,9 @@
       <c r="E391" s="3">
         <v>1</v>
       </c>
-      <c r="G391" s="1"/>
+      <c r="G391" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="392" spans="1:7">
       <c r="A392">
@@ -9333,7 +10138,9 @@
       <c r="E392" s="3">
         <v>1</v>
       </c>
-      <c r="G392" s="1"/>
+      <c r="G392" s="1" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="393" spans="1:7">
       <c r="A393">
@@ -9345,7 +10152,9 @@
       <c r="E393" s="3">
         <v>1</v>
       </c>
-      <c r="G393" s="1"/>
+      <c r="G393" s="1" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="394" spans="1:7">
       <c r="A394">
@@ -9357,7 +10166,9 @@
       <c r="E394" s="3">
         <v>1</v>
       </c>
-      <c r="G394" s="1"/>
+      <c r="G394" s="1" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="395" spans="1:7">
       <c r="A395">
@@ -9369,7 +10180,9 @@
       <c r="C395" s="3">
         <v>1</v>
       </c>
-      <c r="G395" s="1"/>
+      <c r="G395" s="1" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="396" spans="1:7">
       <c r="A396">
@@ -9381,7 +10194,9 @@
       <c r="C396" s="3">
         <v>1</v>
       </c>
-      <c r="G396" s="1"/>
+      <c r="G396" s="1" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="397" spans="1:7">
       <c r="A397">
@@ -9393,7 +10208,9 @@
       <c r="C397" s="3">
         <v>1</v>
       </c>
-      <c r="G397" s="1"/>
+      <c r="G397" s="1" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="398" spans="1:7">
       <c r="A398">
@@ -9405,7 +10222,9 @@
       <c r="C398" s="3">
         <v>1</v>
       </c>
-      <c r="G398" s="1"/>
+      <c r="G398" s="1" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="399" spans="1:7">
       <c r="A399">
@@ -9417,7 +10236,9 @@
       <c r="C399" s="3">
         <v>1</v>
       </c>
-      <c r="G399" s="1"/>
+      <c r="G399" s="1" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="400" spans="1:7">
       <c r="A400">
@@ -9429,7 +10250,9 @@
       <c r="C400" s="3">
         <v>1</v>
       </c>
-      <c r="G400" s="1"/>
+      <c r="G400" s="1" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="401" spans="1:7">
       <c r="A401">
@@ -9441,7 +10264,9 @@
       <c r="C401" s="3">
         <v>1</v>
       </c>
-      <c r="G401" s="1"/>
+      <c r="G401" s="1" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="402" spans="1:7">
       <c r="A402">
@@ -9453,7 +10278,9 @@
       <c r="C402" s="3">
         <v>1</v>
       </c>
-      <c r="G402" s="1"/>
+      <c r="G402" s="1" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="403" spans="1:7">
       <c r="A403">
@@ -9465,7 +10292,9 @@
       <c r="C403" s="3">
         <v>1</v>
       </c>
-      <c r="G403" s="1"/>
+      <c r="G403" s="1" t="s">
+        <v>970</v>
+      </c>
     </row>
     <row r="404" spans="1:7">
       <c r="A404">
@@ -9477,7 +10306,9 @@
       <c r="E404" s="4">
         <v>1</v>
       </c>
-      <c r="G404" s="1"/>
+      <c r="G404" s="1" t="s">
+        <v>971</v>
+      </c>
     </row>
     <row r="405" spans="1:7">
       <c r="A405">
@@ -9489,7 +10320,9 @@
       <c r="E405" s="4">
         <v>1</v>
       </c>
-      <c r="G405" s="1"/>
+      <c r="G405" s="1" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="406" spans="1:7">
       <c r="A406">
@@ -9501,7 +10334,9 @@
       <c r="E406" s="4">
         <v>1</v>
       </c>
-      <c r="G406" s="1"/>
+      <c r="G406" s="1" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="407" spans="1:7">
       <c r="A407">
@@ -9513,7 +10348,9 @@
       <c r="E407" s="4">
         <v>1</v>
       </c>
-      <c r="G407" s="1"/>
+      <c r="G407" s="1" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="408" spans="1:7">
       <c r="A408">
@@ -9525,7 +10362,9 @@
       <c r="E408" s="4">
         <v>1</v>
       </c>
-      <c r="G408" s="1"/>
+      <c r="G408" s="1" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="409" spans="1:7">
       <c r="A409">
@@ -9537,7 +10376,9 @@
       <c r="E409" s="4">
         <v>1</v>
       </c>
-      <c r="G409" s="1"/>
+      <c r="G409" s="1" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="410" spans="1:7">
       <c r="A410">
@@ -9549,7 +10390,9 @@
       <c r="E410" s="4">
         <v>1</v>
       </c>
-      <c r="G410" s="1"/>
+      <c r="G410" s="1" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="411" spans="1:7">
       <c r="A411">
@@ -9561,7 +10404,9 @@
       <c r="E411" s="4">
         <v>1</v>
       </c>
-      <c r="G411" s="1"/>
+      <c r="G411" s="1" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="412" spans="1:7">
       <c r="A412">
@@ -9573,7 +10418,9 @@
       <c r="E412" s="4">
         <v>1</v>
       </c>
-      <c r="G412" s="1"/>
+      <c r="G412" s="1" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="413" spans="1:7">
       <c r="A413">
@@ -9585,7 +10432,9 @@
       <c r="E413" s="4">
         <v>1</v>
       </c>
-      <c r="G413" s="1"/>
+      <c r="G413" s="1" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="414" spans="1:7">
       <c r="A414">
@@ -9597,7 +10446,9 @@
       <c r="E414" s="4">
         <v>1</v>
       </c>
-      <c r="G414" s="1"/>
+      <c r="G414" s="1" t="s">
+        <v>981</v>
+      </c>
     </row>
     <row r="415" spans="1:7">
       <c r="A415">
@@ -9609,7 +10460,9 @@
       <c r="E415" s="4">
         <v>1</v>
       </c>
-      <c r="G415" s="1"/>
+      <c r="G415" s="1" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="416" spans="1:7">
       <c r="A416">
@@ -9621,7 +10474,9 @@
       <c r="E416" s="4">
         <v>1</v>
       </c>
-      <c r="G416" s="1"/>
+      <c r="G416" s="1" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="417" spans="1:7">
       <c r="A417">
@@ -9633,7 +10488,9 @@
       <c r="E417" s="4">
         <v>1</v>
       </c>
-      <c r="G417" s="1"/>
+      <c r="G417" s="1" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="418" spans="1:7">
       <c r="A418">
@@ -9645,7 +10502,9 @@
       <c r="E418" s="4">
         <v>1</v>
       </c>
-      <c r="G418" s="1"/>
+      <c r="G418" s="1" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="419" spans="1:7">
       <c r="A419">
@@ -9657,7 +10516,9 @@
       <c r="E419" s="4">
         <v>1</v>
       </c>
-      <c r="G419" s="1"/>
+      <c r="G419" s="1" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="420" spans="1:7">
       <c r="A420">
@@ -9669,7 +10530,9 @@
       <c r="E420" s="4">
         <v>1</v>
       </c>
-      <c r="G420" s="1"/>
+      <c r="G420" s="1" t="s">
+        <v>987</v>
+      </c>
     </row>
     <row r="421" spans="1:7">
       <c r="A421">
@@ -9681,7 +10544,9 @@
       <c r="E421" s="4">
         <v>1</v>
       </c>
-      <c r="G421" s="1"/>
+      <c r="G421" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="422" spans="1:7">
       <c r="A422">
@@ -9696,7 +10561,9 @@
       <c r="D422" s="3">
         <v>1</v>
       </c>
-      <c r="G422" s="1"/>
+      <c r="G422" s="1" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="423" spans="1:7">
       <c r="A423">
@@ -9708,7 +10575,9 @@
       <c r="C423" s="3">
         <v>1</v>
       </c>
-      <c r="G423" s="1"/>
+      <c r="G423" s="1" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="424" spans="1:7">
       <c r="A424">
@@ -9720,7 +10589,9 @@
       <c r="C424" s="3">
         <v>1</v>
       </c>
-      <c r="G424" s="1"/>
+      <c r="G424" s="1" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="425" spans="1:7">
       <c r="A425">
@@ -9732,7 +10603,9 @@
       <c r="C425" s="3">
         <v>1</v>
       </c>
-      <c r="G425" s="1"/>
+      <c r="G425" s="1" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="426" spans="1:7">
       <c r="A426">
@@ -9744,7 +10617,9 @@
       <c r="C426" s="3">
         <v>1</v>
       </c>
-      <c r="G426" s="1"/>
+      <c r="G426" s="1" t="s">
+        <v>993</v>
+      </c>
     </row>
     <row r="427" spans="1:7">
       <c r="A427">
@@ -9756,7 +10631,9 @@
       <c r="C427" s="3">
         <v>1</v>
       </c>
-      <c r="G427" s="1"/>
+      <c r="G427" s="1" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="428" spans="1:7">
       <c r="A428">
@@ -9768,7 +10645,9 @@
       <c r="C428" s="3">
         <v>1</v>
       </c>
-      <c r="G428" s="1"/>
+      <c r="G428" s="1" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="429" spans="1:7">
       <c r="A429">
@@ -9780,7 +10659,9 @@
       <c r="C429" s="3">
         <v>1</v>
       </c>
-      <c r="G429" s="1"/>
+      <c r="G429" s="1" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="430" spans="1:7">
       <c r="A430">
@@ -9792,7 +10673,9 @@
       <c r="C430" s="3">
         <v>1</v>
       </c>
-      <c r="G430" s="1"/>
+      <c r="G430" s="1" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="431" spans="1:7">
       <c r="A431">
@@ -9804,7 +10687,9 @@
       <c r="C431" s="3">
         <v>1</v>
       </c>
-      <c r="G431" s="1"/>
+      <c r="G431" s="1" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="432" spans="1:7">
       <c r="A432">
@@ -9816,7 +10701,9 @@
       <c r="C432" s="3">
         <v>1</v>
       </c>
-      <c r="G432" s="1"/>
+      <c r="G432" s="1" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="433" spans="1:7">
       <c r="A433">
@@ -9828,7 +10715,9 @@
       <c r="C433" s="3">
         <v>1</v>
       </c>
-      <c r="G433" s="1"/>
+      <c r="G433" s="1" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="434" spans="1:7">
       <c r="A434">
@@ -9840,7 +10729,9 @@
       <c r="C434" s="3">
         <v>1</v>
       </c>
-      <c r="G434" s="1"/>
+      <c r="G434" s="1" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="435" spans="1:7">
       <c r="A435">
@@ -9852,7 +10743,9 @@
       <c r="C435" s="3">
         <v>1</v>
       </c>
-      <c r="G435" s="1"/>
+      <c r="G435" s="1" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="436" spans="1:7">
       <c r="A436">
@@ -9864,7 +10757,9 @@
       <c r="C436" s="3">
         <v>1</v>
       </c>
-      <c r="G436" s="1"/>
+      <c r="G436" s="1" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="437" spans="1:7">
       <c r="A437">
@@ -9876,7 +10771,9 @@
       <c r="C437" s="3">
         <v>1</v>
       </c>
-      <c r="G437" s="1"/>
+      <c r="G437" s="1" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="438" spans="1:7">
       <c r="A438">
@@ -9888,7 +10785,9 @@
       <c r="C438" s="3">
         <v>1</v>
       </c>
-      <c r="G438" s="1"/>
+      <c r="G438" s="1" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="439" spans="1:7">
       <c r="A439">
@@ -9900,7 +10799,9 @@
       <c r="C439" s="3">
         <v>1</v>
       </c>
-      <c r="G439" s="1"/>
+      <c r="G439" s="1" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="440" spans="1:7">
       <c r="A440">
@@ -9912,7 +10813,9 @@
       <c r="C440" s="3">
         <v>1</v>
       </c>
-      <c r="G440" s="1"/>
+      <c r="G440" s="1" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="441" spans="1:7">
       <c r="A441">
@@ -9924,7 +10827,9 @@
       <c r="C441" s="3">
         <v>1</v>
       </c>
-      <c r="G441" s="1"/>
+      <c r="G441" s="1" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="442" spans="1:7">
       <c r="A442">
@@ -9936,7 +10841,9 @@
       <c r="C442" s="3">
         <v>1</v>
       </c>
-      <c r="G442" s="1"/>
+      <c r="G442" s="1" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="443" spans="1:7">
       <c r="A443">
@@ -9948,7 +10855,9 @@
       <c r="C443" s="3">
         <v>1</v>
       </c>
-      <c r="G443" s="1"/>
+      <c r="G443" s="1" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="444" spans="1:7">
       <c r="A444">
@@ -9960,7 +10869,9 @@
       <c r="C444" s="3">
         <v>1</v>
       </c>
-      <c r="G444" s="1"/>
+      <c r="G444" s="1" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="445" spans="1:7">
       <c r="A445">
@@ -9972,7 +10883,9 @@
       <c r="C445" s="3">
         <v>1</v>
       </c>
-      <c r="G445" s="1"/>
+      <c r="G445" s="1" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="446" spans="1:7">
       <c r="A446">
@@ -9984,7 +10897,9 @@
       <c r="C446" s="3">
         <v>1</v>
       </c>
-      <c r="G446" s="1"/>
+      <c r="G446" s="1" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="447" spans="1:7">
       <c r="A447">
@@ -9996,7 +10911,9 @@
       <c r="C447" s="3">
         <v>1</v>
       </c>
-      <c r="G447" s="1"/>
+      <c r="G447" s="1" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row r="448" spans="1:7">
       <c r="A448">
@@ -10008,7 +10925,9 @@
       <c r="C448" s="3">
         <v>1</v>
       </c>
-      <c r="G448" s="1"/>
+      <c r="G448" s="1" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="449" spans="1:7">
       <c r="A449">
@@ -10020,7 +10939,9 @@
       <c r="C449" s="3">
         <v>1</v>
       </c>
-      <c r="G449" s="1"/>
+      <c r="G449" s="1" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="450" spans="1:7">
       <c r="A450">
@@ -10032,7 +10953,9 @@
       <c r="C450" s="3">
         <v>1</v>
       </c>
-      <c r="G450" s="1"/>
+      <c r="G450" s="1" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="451" spans="1:7">
       <c r="A451">
@@ -10044,7 +10967,9 @@
       <c r="C451" s="3">
         <v>1</v>
       </c>
-      <c r="G451" s="1"/>
+      <c r="G451" s="1" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="452" spans="1:7">
       <c r="A452">
@@ -10056,7 +10981,9 @@
       <c r="C452" s="3">
         <v>1</v>
       </c>
-      <c r="G452" s="1"/>
+      <c r="G452" s="1" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="453" spans="1:7">
       <c r="A453">
@@ -10068,7 +10995,9 @@
       <c r="C453" s="3">
         <v>1</v>
       </c>
-      <c r="G453" s="1"/>
+      <c r="G453" s="1" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="454" spans="1:7">
       <c r="A454">
@@ -10080,7 +11009,9 @@
       <c r="C454" s="3">
         <v>1</v>
       </c>
-      <c r="G454" s="1"/>
+      <c r="G454" s="1" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="455" spans="1:7">
       <c r="A455">
@@ -10092,7 +11023,9 @@
       <c r="C455" s="3">
         <v>1</v>
       </c>
-      <c r="G455" s="1"/>
+      <c r="G455" s="1" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="456" spans="1:7">
       <c r="A456">
@@ -10104,7 +11037,9 @@
       <c r="E456" s="4">
         <v>1</v>
       </c>
-      <c r="G456" s="1"/>
+      <c r="G456" s="1" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="457" spans="1:7">
       <c r="A457">
@@ -10116,7 +11051,9 @@
       <c r="E457" s="4">
         <v>1</v>
       </c>
-      <c r="G457" s="1"/>
+      <c r="G457" s="1" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="458" spans="1:7">
       <c r="A458">
@@ -10128,7 +11065,9 @@
       <c r="C458" s="3">
         <v>1</v>
       </c>
-      <c r="G458" s="1"/>
+      <c r="G458" s="1" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="459" spans="1:7">
       <c r="A459">
@@ -10140,7 +11079,9 @@
       <c r="E459" s="4">
         <v>1</v>
       </c>
-      <c r="G459" s="1"/>
+      <c r="G459" s="1" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="460" spans="1:7">
       <c r="A460">
@@ -10152,7 +11093,9 @@
       <c r="E460" s="4">
         <v>1</v>
       </c>
-      <c r="G460" s="1"/>
+      <c r="G460" s="1" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="461" spans="1:7">
       <c r="A461">
@@ -10164,7 +11107,9 @@
       <c r="E461" s="4">
         <v>1</v>
       </c>
-      <c r="G461" s="1"/>
+      <c r="G461" s="1" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="462" spans="1:7">
       <c r="A462">
@@ -10176,7 +11121,9 @@
       <c r="E462" s="4">
         <v>1</v>
       </c>
-      <c r="G462" s="1"/>
+      <c r="G462" s="1" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="463" spans="1:7">
       <c r="A463">
@@ -10188,7 +11135,9 @@
       <c r="E463" s="4">
         <v>1</v>
       </c>
-      <c r="G463" s="1"/>
+      <c r="G463" s="1" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="464" spans="1:7">
       <c r="A464">
@@ -10200,7 +11149,9 @@
       <c r="E464" s="4">
         <v>1</v>
       </c>
-      <c r="G464" s="1"/>
+      <c r="G464" s="1" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="465" spans="1:7">
       <c r="A465">
@@ -10212,7 +11163,9 @@
       <c r="E465" s="4">
         <v>1</v>
       </c>
-      <c r="G465" s="1"/>
+      <c r="G465" s="1" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="466" spans="1:7">
       <c r="A466">
@@ -10224,7 +11177,9 @@
       <c r="E466" s="4">
         <v>1</v>
       </c>
-      <c r="G466" s="1"/>
+      <c r="G466" s="1" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="467" spans="1:7">
       <c r="A467">
@@ -10236,7 +11191,9 @@
       <c r="C467" s="3">
         <v>1</v>
       </c>
-      <c r="G467" s="1"/>
+      <c r="G467" s="1" t="s">
+        <v>1149</v>
+      </c>
     </row>
     <row r="468" spans="1:7">
       <c r="A468">
@@ -10248,7 +11205,9 @@
       <c r="C468" s="3">
         <v>1</v>
       </c>
-      <c r="G468" s="1"/>
+      <c r="G468" s="1" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row r="469" spans="1:7">
       <c r="A469">
@@ -10260,7 +11219,9 @@
       <c r="E469" s="4">
         <v>1</v>
       </c>
-      <c r="G469" s="1"/>
+      <c r="G469" s="1" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="470" spans="1:7">
       <c r="A470">
@@ -10272,7 +11233,9 @@
       <c r="E470" s="4">
         <v>1</v>
       </c>
-      <c r="G470" s="1"/>
+      <c r="G470" s="1" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="471" spans="1:7">
       <c r="A471">
@@ -10284,7 +11247,9 @@
       <c r="E471" s="4">
         <v>1</v>
       </c>
-      <c r="G471" s="1"/>
+      <c r="G471" s="1" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="472" spans="1:7">
       <c r="A472">
@@ -10296,7 +11261,9 @@
       <c r="E472" s="4">
         <v>1</v>
       </c>
-      <c r="G472" s="1"/>
+      <c r="G472" s="1" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="473" spans="1:7">
       <c r="A473">
@@ -10308,7 +11275,9 @@
       <c r="E473" s="4">
         <v>1</v>
       </c>
-      <c r="G473" s="1"/>
+      <c r="G473" s="1" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="474" spans="1:7">
       <c r="A474">
@@ -10320,7 +11289,9 @@
       <c r="E474" s="4">
         <v>1</v>
       </c>
-      <c r="G474" s="1"/>
+      <c r="G474" s="1" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="475" spans="1:7">
       <c r="A475">
@@ -10332,7 +11303,9 @@
       <c r="E475" s="4">
         <v>1</v>
       </c>
-      <c r="G475" s="1"/>
+      <c r="G475" s="1" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="476" spans="1:7">
       <c r="A476">
@@ -10344,7 +11317,9 @@
       <c r="E476" s="4">
         <v>1</v>
       </c>
-      <c r="G476" s="1"/>
+      <c r="G476" s="1" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="477" spans="1:7">
       <c r="A477">
@@ -10356,7 +11331,9 @@
       <c r="E477" s="4">
         <v>1</v>
       </c>
-      <c r="G477" s="1"/>
+      <c r="G477" s="1" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="478" spans="1:7">
       <c r="A478">
@@ -10368,7 +11345,9 @@
       <c r="E478" s="4">
         <v>1</v>
       </c>
-      <c r="G478" s="1"/>
+      <c r="G478" s="1" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="479" spans="1:7">
       <c r="A479">
@@ -10380,7 +11359,9 @@
       <c r="E479" s="4">
         <v>1</v>
       </c>
-      <c r="G479" s="1"/>
+      <c r="G479" s="1" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="480" spans="1:7">
       <c r="A480">
@@ -10392,7 +11373,9 @@
       <c r="E480" s="4">
         <v>1</v>
       </c>
-      <c r="G480" s="1"/>
+      <c r="G480" s="1" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="481" spans="1:7">
       <c r="A481">
@@ -10404,7 +11387,9 @@
       <c r="E481" s="4">
         <v>1</v>
       </c>
-      <c r="G481" s="1"/>
+      <c r="G481" s="1" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="482" spans="1:7">
       <c r="A482">
@@ -10416,7 +11401,9 @@
       <c r="E482" s="4">
         <v>1</v>
       </c>
-      <c r="G482" s="1"/>
+      <c r="G482" s="1" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="483" spans="1:7">
       <c r="A483">
@@ -10428,7 +11415,9 @@
       <c r="E483" s="4">
         <v>1</v>
       </c>
-      <c r="G483" s="1"/>
+      <c r="G483" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="484" spans="1:7">
       <c r="A484">
@@ -10440,7 +11429,9 @@
       <c r="E484" s="4">
         <v>1</v>
       </c>
-      <c r="G484" s="1"/>
+      <c r="G484" s="1" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="485" spans="1:7">
       <c r="A485">
@@ -10452,7 +11443,9 @@
       <c r="E485" s="4">
         <v>1</v>
       </c>
-      <c r="G485" s="1"/>
+      <c r="G485" s="1" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="486" spans="1:7">
       <c r="A486">
@@ -10464,7 +11457,9 @@
       <c r="E486" s="4">
         <v>1</v>
       </c>
-      <c r="G486" s="1"/>
+      <c r="G486" s="1" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="487" spans="1:7">
       <c r="A487">
@@ -10476,7 +11471,9 @@
       <c r="E487" s="4">
         <v>1</v>
       </c>
-      <c r="G487" s="1"/>
+      <c r="G487" s="1" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="488" spans="1:7">
       <c r="A488">
@@ -10488,7 +11485,9 @@
       <c r="E488" s="4">
         <v>1</v>
       </c>
-      <c r="G488" s="1"/>
+      <c r="G488" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="489" spans="1:7">
       <c r="A489">
@@ -10500,7 +11499,9 @@
       <c r="E489" s="4">
         <v>1</v>
       </c>
-      <c r="G489" s="1"/>
+      <c r="G489" s="1" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="490" spans="1:7">
       <c r="A490">
@@ -10512,7 +11513,9 @@
       <c r="E490" s="4">
         <v>1</v>
       </c>
-      <c r="G490" s="1"/>
+      <c r="G490" s="1" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="491" spans="1:7">
       <c r="A491">
@@ -10524,7 +11527,9 @@
       <c r="E491" s="4">
         <v>1</v>
       </c>
-      <c r="G491" s="1"/>
+      <c r="G491" s="1" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="492" spans="1:7">
       <c r="A492">
@@ -10536,7 +11541,9 @@
       <c r="E492" s="4">
         <v>1</v>
       </c>
-      <c r="G492" s="1"/>
+      <c r="G492" s="1" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="493" spans="1:7">
       <c r="A493">
@@ -10548,7 +11555,9 @@
       <c r="E493" s="4">
         <v>1</v>
       </c>
-      <c r="G493" s="1"/>
+      <c r="G493" s="1" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="494" spans="1:7">
       <c r="A494">
@@ -10560,7 +11569,9 @@
       <c r="E494" s="4">
         <v>1</v>
       </c>
-      <c r="G494" s="1"/>
+      <c r="G494" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="495" spans="1:7">
       <c r="A495">
@@ -10572,7 +11583,9 @@
       <c r="E495" s="4">
         <v>1</v>
       </c>
-      <c r="G495" s="1"/>
+      <c r="G495" s="1" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="496" spans="1:7">
       <c r="A496">
@@ -10584,7 +11597,9 @@
       <c r="E496" s="4">
         <v>1</v>
       </c>
-      <c r="G496" s="1"/>
+      <c r="G496" s="1" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="497" spans="1:7">
       <c r="A497">
@@ -10596,7 +11611,9 @@
       <c r="E497" s="4">
         <v>1</v>
       </c>
-      <c r="G497" s="1"/>
+      <c r="G497" s="1" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="498" spans="1:7">
       <c r="A498">
@@ -10608,7 +11625,9 @@
       <c r="E498" s="4">
         <v>1</v>
       </c>
-      <c r="G498" s="1"/>
+      <c r="G498" s="1" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row r="499" spans="1:7">
       <c r="A499">
@@ -10620,7 +11639,9 @@
       <c r="E499" s="4">
         <v>1</v>
       </c>
-      <c r="G499" s="1"/>
+      <c r="G499" s="1" t="s">
+        <v>1065</v>
+      </c>
     </row>
     <row r="500" spans="1:7">
       <c r="A500">
@@ -10632,7 +11653,9 @@
       <c r="E500" s="4">
         <v>1</v>
       </c>
-      <c r="G500" s="1"/>
+      <c r="G500" s="1" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="501" spans="1:7">
       <c r="A501">
@@ -10644,7 +11667,9 @@
       <c r="E501" s="4">
         <v>1</v>
       </c>
-      <c r="G501" s="1"/>
+      <c r="G501" s="1" t="s">
+        <v>1067</v>
+      </c>
     </row>
     <row r="502" spans="1:7">
       <c r="A502">
@@ -10656,7 +11681,9 @@
       <c r="E502" s="4">
         <v>1</v>
       </c>
-      <c r="G502" s="1"/>
+      <c r="G502" s="1" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="503" spans="1:7">
       <c r="A503">
@@ -10668,7 +11695,9 @@
       <c r="E503" s="4">
         <v>1</v>
       </c>
-      <c r="G503" s="1"/>
+      <c r="G503" s="1" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="504" spans="1:7">
       <c r="A504">
@@ -10680,7 +11709,9 @@
       <c r="E504" s="4">
         <v>1</v>
       </c>
-      <c r="G504" s="1"/>
+      <c r="G504" s="1" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="505" spans="1:7">
       <c r="A505">
@@ -10692,7 +11723,9 @@
       <c r="E505" s="4">
         <v>1</v>
       </c>
-      <c r="G505" s="1"/>
+      <c r="G505" s="1" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="506" spans="1:7">
       <c r="A506">
@@ -10704,7 +11737,9 @@
       <c r="E506" s="4">
         <v>1</v>
       </c>
-      <c r="G506" s="1"/>
+      <c r="G506" s="1" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="507" spans="1:7">
       <c r="A507">
@@ -10716,7 +11751,9 @@
       <c r="E507" s="4">
         <v>1</v>
       </c>
-      <c r="G507" s="1"/>
+      <c r="G507" s="1" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="508" spans="1:7">
       <c r="A508">
@@ -10728,7 +11765,9 @@
       <c r="E508" s="4">
         <v>1</v>
       </c>
-      <c r="G508" s="1"/>
+      <c r="G508" s="1" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="509" spans="1:7">
       <c r="A509">
@@ -10743,7 +11782,9 @@
       <c r="D509" s="3">
         <v>1</v>
       </c>
-      <c r="G509" s="1"/>
+      <c r="G509" s="1" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="510" spans="1:7">
       <c r="A510">
@@ -10755,7 +11796,9 @@
       <c r="F510" s="3">
         <v>1</v>
       </c>
-      <c r="G510" s="1"/>
+      <c r="G510" s="1" t="s">
+        <v>1076</v>
+      </c>
     </row>
     <row r="511" spans="1:7">
       <c r="A511">
@@ -10767,7 +11810,9 @@
       <c r="F511" s="3">
         <v>1</v>
       </c>
-      <c r="G511" s="1"/>
+      <c r="G511" s="1" t="s">
+        <v>1077</v>
+      </c>
     </row>
     <row r="512" spans="1:7">
       <c r="A512">
@@ -10779,7 +11824,9 @@
       <c r="F512" s="3">
         <v>1</v>
       </c>
-      <c r="G512" s="1"/>
+      <c r="G512" s="1" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="513" spans="1:7">
       <c r="A513">
@@ -10791,7 +11838,9 @@
       <c r="F513" s="3">
         <v>1</v>
       </c>
-      <c r="G513" s="1"/>
+      <c r="G513" s="1" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="514" spans="1:7">
       <c r="A514">
@@ -10803,7 +11852,9 @@
       <c r="F514" s="3">
         <v>1</v>
       </c>
-      <c r="G514" s="1"/>
+      <c r="G514" s="1" t="s">
+        <v>1080</v>
+      </c>
     </row>
     <row r="515" spans="1:7">
       <c r="A515">
@@ -10815,7 +11866,9 @@
       <c r="F515" s="3">
         <v>1</v>
       </c>
-      <c r="G515" s="1"/>
+      <c r="G515" s="1" t="s">
+        <v>1081</v>
+      </c>
     </row>
     <row r="516" spans="1:7">
       <c r="A516" s="6">
@@ -10830,7 +11883,9 @@
       <c r="F516" s="7">
         <v>2</v>
       </c>
-      <c r="G516" s="9"/>
+      <c r="G516" s="9" t="s">
+        <v>1082</v>
+      </c>
     </row>
     <row r="517" spans="1:7">
       <c r="A517">
@@ -10845,7 +11900,9 @@
       <c r="D517" s="3">
         <v>1</v>
       </c>
-      <c r="G517" s="1"/>
+      <c r="G517" s="1" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="518" spans="1:7">
       <c r="A518">
@@ -10860,7 +11917,9 @@
       <c r="D518" s="3">
         <v>1</v>
       </c>
-      <c r="G518" s="1"/>
+      <c r="G518" s="1" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="519" spans="1:7">
       <c r="A519">
@@ -10878,7 +11937,9 @@
       <c r="F519" s="3">
         <v>1</v>
       </c>
-      <c r="G519" s="1"/>
+      <c r="G519" s="1" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="520" spans="1:7">
       <c r="A520">
@@ -10896,7 +11957,9 @@
       <c r="F520" s="3">
         <v>1</v>
       </c>
-      <c r="G520" s="1"/>
+      <c r="G520" s="1" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="521" spans="1:7">
       <c r="A521">
@@ -10911,7 +11974,9 @@
       <c r="D521" s="3">
         <v>1</v>
       </c>
-      <c r="G521" s="1"/>
+      <c r="G521" s="1" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="522" spans="1:7">
       <c r="A522">
@@ -10929,7 +11994,9 @@
       <c r="F522" s="3">
         <v>1</v>
       </c>
-      <c r="G522" s="1"/>
+      <c r="G522" s="1" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="523" spans="1:7">
       <c r="A523">
@@ -10944,7 +12011,9 @@
       <c r="F523" s="3">
         <v>1</v>
       </c>
-      <c r="G523" s="1"/>
+      <c r="G523" s="1" t="s">
+        <v>1089</v>
+      </c>
     </row>
     <row r="524" spans="1:7">
       <c r="A524">
@@ -10956,7 +12025,9 @@
       <c r="E524" s="4">
         <v>1</v>
       </c>
-      <c r="G524" s="1"/>
+      <c r="G524" s="1" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="525" spans="1:7">
       <c r="A525">
@@ -10974,7 +12045,9 @@
       <c r="F525" s="3">
         <v>1</v>
       </c>
-      <c r="G525" s="1"/>
+      <c r="G525" s="1" t="s">
+        <v>1091</v>
+      </c>
     </row>
     <row r="526" spans="1:7">
       <c r="A526">
@@ -10992,7 +12065,9 @@
       <c r="F526" s="3">
         <v>1</v>
       </c>
-      <c r="G526" s="1"/>
+      <c r="G526" s="1" t="s">
+        <v>1092</v>
+      </c>
     </row>
     <row r="527" spans="1:7">
       <c r="A527">
@@ -11010,7 +12085,9 @@
       <c r="F527" s="3">
         <v>1</v>
       </c>
-      <c r="G527" s="1"/>
+      <c r="G527" s="1" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="528" spans="1:7">
       <c r="A528">
@@ -11028,7 +12105,9 @@
       <c r="F528" s="3">
         <v>1</v>
       </c>
-      <c r="G528" s="1"/>
+      <c r="G528" s="1" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="529" spans="1:7">
       <c r="A529">
@@ -11046,7 +12125,9 @@
       <c r="F529" s="3">
         <v>1</v>
       </c>
-      <c r="G529" s="1"/>
+      <c r="G529" s="1" t="s">
+        <v>1095</v>
+      </c>
     </row>
     <row r="530" spans="1:7">
       <c r="A530">
@@ -11064,7 +12145,9 @@
       <c r="F530" s="3">
         <v>1</v>
       </c>
-      <c r="G530" s="1"/>
+      <c r="G530" s="1" t="s">
+        <v>1096</v>
+      </c>
     </row>
     <row r="531" spans="1:7">
       <c r="A531">
@@ -11079,7 +12162,9 @@
       <c r="F531" s="3">
         <v>1</v>
       </c>
-      <c r="G531" s="1"/>
+      <c r="G531" s="1" t="s">
+        <v>1097</v>
+      </c>
     </row>
     <row r="532" spans="1:7">
       <c r="A532">
@@ -11094,7 +12179,9 @@
       <c r="F532" s="3">
         <v>1</v>
       </c>
-      <c r="G532" s="1"/>
+      <c r="G532" s="1" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="533" spans="1:7">
       <c r="A533">
@@ -11112,7 +12199,9 @@
       <c r="F533" s="3">
         <v>1</v>
       </c>
-      <c r="G533" s="1"/>
+      <c r="G533" s="1" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="534" spans="1:7">
       <c r="A534">
@@ -11127,7 +12216,9 @@
       <c r="E534" s="4">
         <v>1</v>
       </c>
-      <c r="G534" s="1"/>
+      <c r="G534" s="1" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="535" spans="1:7">
       <c r="A535">
@@ -11142,7 +12233,9 @@
       <c r="E535" s="4">
         <v>1</v>
       </c>
-      <c r="G535" s="1"/>
+      <c r="G535" s="1" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="536" spans="1:7">
       <c r="A536">
@@ -11157,7 +12250,9 @@
       <c r="E536" s="4">
         <v>1</v>
       </c>
-      <c r="G536" s="1"/>
+      <c r="G536" s="1" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="537" spans="1:7">
       <c r="A537">
@@ -11172,7 +12267,9 @@
       <c r="E537" s="4">
         <v>1</v>
       </c>
-      <c r="G537" s="1"/>
+      <c r="G537" s="1" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="538" spans="1:7">
       <c r="A538">
@@ -11187,7 +12284,9 @@
       <c r="E538" s="4">
         <v>1</v>
       </c>
-      <c r="G538" s="1"/>
+      <c r="G538" s="1" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="539" spans="1:7">
       <c r="A539">
@@ -11202,7 +12301,9 @@
       <c r="E539" s="4">
         <v>1</v>
       </c>
-      <c r="G539" s="1"/>
+      <c r="G539" s="1" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="540" spans="1:7">
       <c r="A540">
@@ -11217,7 +12318,9 @@
       <c r="E540" s="4">
         <v>1</v>
       </c>
-      <c r="G540" s="1"/>
+      <c r="G540" s="1" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="541" spans="1:7">
       <c r="A541">
@@ -11232,7 +12335,9 @@
       <c r="E541" s="4">
         <v>1</v>
       </c>
-      <c r="G541" s="1"/>
+      <c r="G541" s="1" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="542" spans="1:7">
       <c r="A542">
@@ -11247,7 +12352,9 @@
       <c r="E542" s="4">
         <v>1</v>
       </c>
-      <c r="G542" s="1"/>
+      <c r="G542" s="1" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="543" spans="1:7">
       <c r="A543">
@@ -11262,7 +12369,9 @@
       <c r="E543" s="4">
         <v>1</v>
       </c>
-      <c r="G543" s="1"/>
+      <c r="G543" s="1" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="544" spans="1:7">
       <c r="A544">
@@ -11277,7 +12386,9 @@
       <c r="E544" s="4">
         <v>1</v>
       </c>
-      <c r="G544" s="1"/>
+      <c r="G544" s="1" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="545" spans="1:7">
       <c r="A545">
@@ -11292,7 +12403,9 @@
       <c r="E545" s="4">
         <v>1</v>
       </c>
-      <c r="G545" s="1"/>
+      <c r="G545" s="1" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="546" spans="1:7">
       <c r="A546">
@@ -11307,7 +12420,9 @@
       <c r="E546" s="4">
         <v>1</v>
       </c>
-      <c r="G546" s="1"/>
+      <c r="G546" s="1" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="547" spans="1:7">
       <c r="A547">
@@ -11322,7 +12437,9 @@
       <c r="E547" s="4">
         <v>1</v>
       </c>
-      <c r="G547" s="1"/>
+      <c r="G547" s="1" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="548" spans="1:7">
       <c r="A548">
@@ -11337,7 +12454,9 @@
       <c r="E548" s="4">
         <v>1</v>
       </c>
-      <c r="G548" s="1"/>
+      <c r="G548" s="1" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="549" spans="1:7">
       <c r="A549">
@@ -11352,7 +12471,9 @@
       <c r="E549" s="4">
         <v>1</v>
       </c>
-      <c r="G549" s="1"/>
+      <c r="G549" s="1" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="550" spans="1:7">
       <c r="A550">
@@ -11367,7 +12488,9 @@
       <c r="E550" s="4">
         <v>1</v>
       </c>
-      <c r="G550" s="1"/>
+      <c r="G550" s="1" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="551" spans="1:7">
       <c r="A551">
@@ -11382,7 +12505,9 @@
       <c r="E551" s="4">
         <v>1</v>
       </c>
-      <c r="G551" s="1"/>
+      <c r="G551" s="1" t="s">
+        <v>1117</v>
+      </c>
     </row>
     <row r="552" spans="1:7">
       <c r="A552">
@@ -11397,7 +12522,9 @@
       <c r="E552" s="4">
         <v>1</v>
       </c>
-      <c r="G552" s="1"/>
+      <c r="G552" s="1" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="553" spans="1:7">
       <c r="A553">
@@ -11409,7 +12536,9 @@
       <c r="F553" s="3">
         <v>1</v>
       </c>
-      <c r="G553" s="1"/>
+      <c r="G553" s="1" t="s">
+        <v>1119</v>
+      </c>
     </row>
     <row r="554" spans="1:7">
       <c r="A554">
@@ -11421,7 +12550,9 @@
       <c r="F554" s="3">
         <v>1</v>
       </c>
-      <c r="G554" s="1"/>
+      <c r="G554" s="1" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="555" spans="1:7">
       <c r="A555">
@@ -11433,7 +12564,9 @@
       <c r="F555" s="3">
         <v>1</v>
       </c>
-      <c r="G555" s="1"/>
+      <c r="G555" s="1" t="s">
+        <v>1121</v>
+      </c>
     </row>
     <row r="556" spans="1:7">
       <c r="A556">
@@ -11445,7 +12578,9 @@
       <c r="F556" s="3">
         <v>1</v>
       </c>
-      <c r="G556" s="1"/>
+      <c r="G556" s="1" t="s">
+        <v>1122</v>
+      </c>
     </row>
     <row r="557" spans="1:7">
       <c r="A557">
@@ -11457,7 +12592,9 @@
       <c r="F557" s="3">
         <v>1</v>
       </c>
-      <c r="G557" s="1"/>
+      <c r="G557" s="1" t="s">
+        <v>1123</v>
+      </c>
     </row>
     <row r="558" spans="1:7">
       <c r="A558">
@@ -11472,7 +12609,9 @@
       <c r="F558" s="3">
         <v>1</v>
       </c>
-      <c r="G558" s="1"/>
+      <c r="G558" s="1" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="559" spans="1:7">
       <c r="A559">
@@ -11487,7 +12626,9 @@
       <c r="E559" s="4">
         <v>1</v>
       </c>
-      <c r="G559" s="1"/>
+      <c r="G559" s="1" t="s">
+        <v>1125</v>
+      </c>
     </row>
     <row r="560" spans="1:7">
       <c r="A560">
@@ -11502,7 +12643,9 @@
       <c r="E560" s="4">
         <v>1</v>
       </c>
-      <c r="G560" s="1"/>
+      <c r="G560" s="1" t="s">
+        <v>1126</v>
+      </c>
     </row>
     <row r="561" spans="1:7">
       <c r="A561">
@@ -11520,7 +12663,9 @@
       <c r="E561" s="4">
         <v>1</v>
       </c>
-      <c r="G561" s="1"/>
+      <c r="G561" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="562" spans="1:7">
       <c r="A562">
@@ -11538,7 +12683,9 @@
       <c r="E562" s="4">
         <v>1</v>
       </c>
-      <c r="G562" s="1"/>
+      <c r="G562" s="1" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="563" spans="1:7">
       <c r="A563">
@@ -11556,7 +12703,9 @@
       <c r="E563" s="4">
         <v>1</v>
       </c>
-      <c r="G563" s="1"/>
+      <c r="G563" s="1" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="564" spans="1:7">
       <c r="A564">
@@ -11574,7 +12723,9 @@
       <c r="E564" s="4">
         <v>1</v>
       </c>
-      <c r="G564" s="1"/>
+      <c r="G564" s="1" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="565" spans="1:7">
       <c r="A565">
@@ -11592,7 +12743,9 @@
       <c r="E565" s="4">
         <v>1</v>
       </c>
-      <c r="G565" s="1"/>
+      <c r="G565" s="1" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="566" spans="1:7">
       <c r="A566">
@@ -11610,7 +12763,9 @@
       <c r="E566" s="4">
         <v>1</v>
       </c>
-      <c r="G566" s="1"/>
+      <c r="G566" s="1" t="s">
+        <v>1131</v>
+      </c>
     </row>
     <row r="567" spans="1:7">
       <c r="A567">
@@ -11628,7 +12783,9 @@
       <c r="E567" s="4">
         <v>1</v>
       </c>
-      <c r="G567" s="1"/>
+      <c r="G567" s="1" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="568" spans="1:7">
       <c r="A568">
@@ -11646,7 +12803,9 @@
       <c r="E568" s="4">
         <v>1</v>
       </c>
-      <c r="G568" s="1"/>
+      <c r="G568" s="1" t="s">
+        <v>1133</v>
+      </c>
     </row>
     <row r="569" spans="1:7">
       <c r="A569">
@@ -11664,7 +12823,9 @@
       <c r="E569" s="4">
         <v>1</v>
       </c>
-      <c r="G569" s="1"/>
+      <c r="G569" s="1" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="570" spans="1:7">
       <c r="A570">
@@ -11682,7 +12843,9 @@
       <c r="E570" s="4">
         <v>1</v>
       </c>
-      <c r="G570" s="1"/>
+      <c r="G570" s="1" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="571" spans="1:7">
       <c r="A571">
@@ -11697,7 +12860,9 @@
       <c r="D571" s="3">
         <v>1</v>
       </c>
-      <c r="G571" s="1"/>
+      <c r="G571" s="1" t="s">
+        <v>1136</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
